--- a/Data/Products_Shopee_filtered.xlsx
+++ b/Data/Products_Shopee_filtered.xlsx
@@ -35,511 +35,1108 @@
     <x:t>sold_cleaned</x:t>
   </x:si>
   <x:si>
-    <x:t>TWICELOVE R Musico Fashionable Sneaker Summer Breathable Men Running Shoes Casual Style</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malaysia</x:t>
+    <x:t>Men's shoes Korean version trendy sports casual thick soled men's fashion sports shoes running shoes dad men's hiking shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Selangor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZXSM Men's Shoes Fashion Air Cushioned Sports Shoes Casual Men's Shoes Trend Breathable Youth Thick Sole Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[READY STOCK] Converse 1970s all star chuck70 high top canvas Sneakers Low help Casual Shoes UNISEX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashionable Trendy Men's Running &amp; School Sports Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indonesia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anti Work New Wear Protection Waterproof Labor Men's shoes Shoes Leisure Black resistant work Trendy Summer Sports slip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Fast shipping】Men's shoes Korean sports casual thick men's fashion sports shoes running shoes dad men's hiking shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>859 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Kasut Perempuan Men and Women super star Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mainland China</x:t>
+  </x:si>
+  <x:si>
+    <x:t>737 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High quality trendy student board shoes casual for men's shoes Breathable upper Wear-resistant sole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's shoes new breathable mesh surface sports shoes men's trend everything heightens board shoes casual running daddy shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Supercans] Aj1 Replica High-Top Black White Panda Chicago Obsidian Shadow Gray Men Women Sneakers Basketball Shoes Sports Shoes RT-0002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIKAZE - JOSEPH Men's Outdoor Sneakers Sport Shoes Kasut Sukan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83C__xDF81_Hype Fashion Stripe Sneakers Men Sneakers Men Sport Shoes Kasut Lelaki Murah Walking Running Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 Raya Ready Stock Size 36-45 Men's Sport Shoes Casual Kasut sukan lelaki Kasut Lelaki Fashion Man Sneakers Kasut Sport budak Breathable women shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Venous 2025 New Kasut Hitam Lelaki Original Kasut Sport Lelaki Sport Black Shoes Men 黑色男鞋 包鞋男 Casual Sneakers Men</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pulau Pinang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Nova _xD83C__xDF81_ Ready Stock _xD83C__xDF08_ Stripe Sneakers Men Low Tops Sneakers Men Shoes Kasut Lelaki Murah Walking Running Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Men's Sport Shoes Sneakers Kasut Sukan Lelaki Fashion Harga Murah Harga Lelong Unisex Fashionable Running</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock FIFTY2 FS172 Sport Men's Sneakers Kasut Lelaki Guys Sneaker Walking Running Man Sport's Shoes Casual Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senji Men's Sneakers Shoes Men's Fashion Sneakers Senji Feather School Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Leather Shoes Men Casual Shoes Men Casual Sneakers Men White Shoes Men Pu Sneaker Kasut Jalan Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stok sedia, penghantaran 24 jam kasut putih lelaki sneakers kasut kasual lelaki murah Kasut Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Shoes Men's Spring Labor Insurance And The Latest Skin Boys Sneakers Men Shoes 100% Original Shoes Breathing Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>603 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's sneakers Breathable upper Wear-resistant sole Fashion shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual high quality stylish student board shoes for men's shoes Wear-resistant sole breathable upper Men's sports shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDDF2__xD83C__xDDFE_Ready Stock Original casual shoes Student school shoes Sneakers Kasut lelaki perempuan walking shoes Skateboard Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lollipop Fashion_xD83D__xDC9D_Ready Stock_xD83D__xDC9D_Men's shoes Korean trendy sports casual thick soled men's fashion sports shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Kasut Lelaki 2025 Sneakers Men's Shoes Casual Men's Flat Shoes Breathable Summer Leather Sport Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Size 36-44 2023 New Men's Casual Fashion Wear-resistant Trend Sports Shoes Mesh Breathable Lightweight Men's Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>355 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stylish All-match Men's Shoes New Breathable Casual Sports Shoes Comfortable Lightweight Running Sneakers Fashion Small White Men Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Venous 2025 Kasut Sukan Lelaki Korean Sports Shoes Men Original Rubber Men's Shoes Fashion Casual Sneakers 男鞋 包鞋男</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK WOOHUU Men Outdoor Sneaker Sport Shoes Kasut Sukan Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pahang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's autumn shoes Martin boots men's British high-top leather shoes casual leather shoes Korean style with black leathe</x:t>
   </x:si>
   <x:si>
     <x:t>1.4k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Readystock Shoes Men Casual Sole Shoe Low Bean Shoes Leather Shoe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mainland China</x:t>
+    <x:t>READY STOCK_xD83D__xDC9D_GRIMO Borderfill Sneaker Men's Sport's Kasut Outdoor Shoe Lelaki Wanita Women's Sneakers Travel ks10019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Sports Shoes Kasut Sukan Outdoor Sneakers For Men Kasut Perempuan B9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Casual Leather Shoes Lace Up Formal Shoes Shiny Black Small Leather British Style Shoes Kasut Formal Lelaki男生皮鞋商务鞋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_Ready Stock_xD83D__xDD25_kasut lelaki/men shoes/black shoes sport shoes High quality light weight Feather design Hot sale !!!_xD83D__xDD25_</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[In Stock] CDG PLAY x Converse 1970s All-Star Shoes Men's Women's Sneakers Low-top Classic Shoes High-top Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>704 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 Raya Size 38-46 Men's Shoes Mesh Jogging Shoes for Men Casual Walking Shoes Sneakers Mesh Breathable Sneakers on Sale Kasut Bernafas Mesh Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK WOOHUU Men Outdoor Sneaker Sport Shoes Kasut Sukan Lelaki Sneakers Fashion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>996 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Shoes Korean Fashion Casual Sneaker Cool design Breathable Men's Shoes Men's Sports Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>314 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 Raya Ready Stock Kasut Lelaki Sneakers Casual Men Shoes Men Canvas Sport Shoes Classic Men's Sneakers Comfortable Breathable Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's shoes Korean style business casual leather shoes waterproof soft sole running shoes anti-skate shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pure Black Wear-Resistant Men Shoes School couple Shoes Niche Design Thick Sole Comfortable AllMatch Casual Sports Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men Light Weight Sport Shoes Sneaker Jogger Shoes K117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUTIH Juragan Online - Korean Style UFLINE High Platform White Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Latest Casual Women's Sneakers COEK-NNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>384 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Online JURAGAN - Korean Style Stephany Bhanolgy Women's Sneakers Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual Women's Shoes Korean Sneakers COEK SW-48</x:t>
   </x:si>
   <x:si>
     <x:t>606 sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Men's women's slip-on shoes, casual shoes, fashion shoes, original sneakers Z 05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indonesia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>232 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Paker Jelly Men Shoes 男款大头鞋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TWICELOVE Men's casual sneaker breathable sports running shoes soft llightweight flying woven shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>376 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HIGH CUT SNEAKERS Size 35-44 White Casual CANVAS School SHOES SG LOCAL RETAILER Trend indoor Outdoor Shoe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>217 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024 safetywhite shoes men insurance shoes men s new autumn construction site shoes leisure work non-slip tooling S/* # safety shoes White shoes men's labor protection men's shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men Casual Shoes Ultralight Comfortable Walking Shoes Unisex Men Women Sock Mouth Sneakers Tenis Shoe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2023【Size 39-48】Men's Oxfords Casual Suede European style Leather Shoes 5QZL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Official S_Men's and Women's Casual Sport Sneakers Shoes White Shoes Botth Shoes High Shoes, Pay on the Spot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>257 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sneakers 3328 Size Range 35-46 Canvas shoe Black School Casual Man Lady kid LOCAL SG SELLER Indoor Outdoor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Women's Sneakers X2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mikarause White Casual Shoes Men Leather Sneakers Male Comfort Sport Running Sneaker Man Tenis mocassin Fashion Breathable Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>552 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*Local Ready Stock* Warrior School Shoes Canvas Shoes RSP $26.90</x:t>
+    <x:t>Smartchoice * Women's Flat OL Kasut Wanita Women Rubber Shoes【S39】</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W.P. Kuala Lumpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>348.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83D__xDC9D_GRIMO Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita ks14975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUTIH Rulfine Women's Korean Sneakers Shoes Korean Fashion High Platform White Sneakers Women's Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoes Oxford Women Kasut Perempuan Wanita 女鞋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avovi Women Sneakers Thick-soled All-match Sports Shoes Korean Fashion Comfort Breathable Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【READY STOCK】kasut perempuan/Women's breathable soft soled shoes loafers women Braided shoes women shoes kasut wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McJoden - GATITA Fashion Casual Platform Martin Heels Women Boots</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's shoes Wear-resistant and anti-slip Stylish and breathable white shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Premium QUALITY KOREAN WOMEN'S SNEAKERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cute white shoes for women breathable versatile thick-soled height-increasing super popular sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ladies casual shoes Fashionable breathability Wear -resistant non -slip Lady Daddy Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Kasut Perempuan Women'S Shoes Sneakers Kasut Sukan Wanita Sports Shoes Fly Woven Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kasut/kasut perempuan/kasut wanita/Old Beijing cloth shoes women's cotton shoes flat shoes all match mother's shoes warm sports shoes women's shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZXSM Women's breathable woven shoes casual sports running women's shoes women's thick soled shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Magni Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's Forrest Gump shoes low-top shoes thick-soled white shoes new style sports style casual sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>740 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's sports shoes wear resistant anti slip and breathable Increase height fashion casual shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>364.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Deno Sneaker Women's Casual Sports Shoes Kasut Sukan Wanita Sport Shoes For Women 老爹鞋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Mr.Kasut 8916 MYELLA Casual Sneakers Shoes Kasut Wanita Sport Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Penghantaran 24 jam kasut wanita korean style kasut wanita murah cantik kasut sukan wanita Kasut kasual wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sr Shoes Flatshoes with Ribbon Motif Gsper Latfrom Soll Rubber Anti Slip Trendy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1212 Promotion Malaysia Ready Stock Small White Simple Design Students Sneakers Board Shoes Fashion Casual Women Footwear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK⭐ TWICELOVE Swift Sneaker Women's Unisex Men's Sport's Kasut Outdoor Shoe Lelaki Wanita Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Sneakers Casual Rubber White Shoes for women and girl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>714 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MYKUTSU Halbert Women Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MYKUTSU Dariel Women Leather Casual Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kasut kasual wanita Cute lace stripes Anti-slip and shock absorption Sports and leisure shoes Forrest Gump women's shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>530 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Local Ready Stock】【NERO】ABBY Fashion Platform Japanese Style PU Leather Mary Jane Casual High Heels Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Namvitae Women Casual Low-top Sneakers Breathable Heightened Mesh Shoes Ladies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silver thick-soled lightweight Forrest Gump shoes for women retro sneakers new autumn all-match casual white shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>640 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fcb Women's Shoes Fashion Collection Sneakers *FREE SOCKS*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Ready Stock】Perempuan Kasut Canvas Wanita Canvas Shoes Women white shoes Student leisure sports shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's Sneakers Shoes Full White FREYA Shoes suitable for casual and relaxing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83D__xDD25_WEBEE 1308 Sui Felsy Women Korean Style Fashion Casual Platform Martin Thick Sole Strap Casual Oxford Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kasut kasual wanita Retro Forrest Gump Shoes Running Casual shoes Soft bottom flat shoes for women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>769 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's fashion thick-soled sneakers shock-absorbing soles antibacterial good ventilation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83C__xDF81_WEBEE 804 Deno Sneaker Women's Casual Sports Shoes Kasut Sukan Wanita Sport Shoes For Women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lady knit full black sneaker shoes ( school shoes ) kasut perempuan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beli2you Sneakers Women Korean Style Women Shoes Kasut Sneakers Kasut Jalan Perempuan Murah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Classic Simple Letter Round Neck Short Sleeve T-shirt Student Couple Loose Casual Retro Versatile Tee Fried Street Half Sleeve Fashion Tops</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Short Sleeve T-shirt Set Men Summer Two Piece Sets Baju T Shirt Lelaki Sports Set Men Fashion Casual Set Summer Korean Short-sleeved T-shirt Men's Two-piece Shorts T-shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T Shirt Lelaki Baju Lelaki T Shirt Waffle Fabric Round Neck Half Sleeve Good Quality M-3XL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOOKA Shirt Men Kemeja Lelaki Korean style Fashion Polo Shirt Plain Shirt Short Sleeved Shirt Men Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kedah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_Promosi Murah_xD83D__xDD25_ New York TShirt 100% Cotton Unisex Men Women Round Neck Short Sleeve Baju Lelaki Wanita Ready Stock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIX Korean men's short sleeved casual shirt Business formal shirt Mint smooth loose polo shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>✅READY STOCK big loose shirt harajuku trend clothes couple set men plus size cotton t-shirt drew baju black</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Versatile Letter Printed Casual Base T-shirt Unisex Baju T Shirt Lelaki Summer Comfortable Simple Clean Round Neck Short Sleeve Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEKE Embroidered Logo T-shirt Men Short Sleeve Tops Lelaki Lengan Pendek Baju tshirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>✦Local Shipping✦COD kemeja pendek lengan lelaki Korean Ice Silk black shirt for men Short Sleeved Shirt 男生 襯衫 短袖</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oversize T-shirt Korean Style clothes Loose Half-Sleeve Unisex Baju tshirt Lelaki Men tshirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sabah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y-3 Kemeja Pullover Lengan Pendek Linen Lelaki Men's Casual Solid Color Short Sleeve Pullover Shirt Linen Stand Collar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEKE Lapel Shirt Men Casual Plain Short Sleeve Men Shirt Korean style Fashion Polo Shirt Unsex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVENDAYS summer American men's T -shirt pure cotton half -sleeved leisure female couple tide brand hip -hop style</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACE BEAUTY 100% Cotton Unisex Short Sleeve Printed Simple style T-Shirt for Men &amp; Women Loose Neck Round Neck Loose Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JDEN Oversized T-shirt 270gsm (Unisex) - 100% Cotton Tshirt Lelaki Perempuan 40-120KG Plus Size - Baju Lelaki/Perempuan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Men's Summer Ice Silk High Quality Half Sleeve Plain Shirt Korean 3 4 Sleeve Stand Collar Slim Fit Trend Tops White\ Black\ Green</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tshirt Oversized Men Streetwear Top Vintage Baju Lelaki Size Besar Graphic Printed Korean Style American Minimalist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer New INS Fashion Trend Loose Printed T-shirt for Men Short-sleeve Round Neck Tee Couple Clothes Black/White S-5XL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【COD】100% cotton light luxury original street wear unisex bercetak T-shirt longgar top shirt untuk lelaki T shirt lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>664 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACE BEAUTY 100%Cotton Unisex Short Sleeve Printed Casual and simple T-Shirt for Men Loose Neck Round Neck Loose Top OOTD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>612 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[12 Colors]Kemeja Pullover Lengan Pendek Linen Lelaki Men's Casual Solid Color Short Sleeve Pullover Shirt Linen Stand Collar Summer Beach Basic Polo Shirt Brown\Khaki\Light Blue\Green\Coffee\White\Black</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y-3White Slim Fit Shirt Man Summer Plain All-match Casual Short Sleeve Waffle Shirt Men Baju Kemeja Lelaki Lengan Pendek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T-shirt lelaki, T-shirt leher bulat, T-shirt fashionable, lengan pendek, warna berbilang untuk dipilih dari#T51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COD bleached T-shirt 100 cotton oversized deep black hip-hop retro couple shirt 69169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Original Street Plus Size Student Leisure Unisex T-shirt American Retro Youth Round Neck Short Sleeve Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Man button blouse tees men shirt Hawaiian shirt beach flower shirt short-sleeved shirt men loose casual vintage shirt men floral shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>American Retro Street Casual Large T-shirt Men's Half Sleeve Loose Round Neck Summer Female Student Letter Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_Local Delivery Men's POLO Shirt Linen Kurta Casual Kemeja Lelaki T-shirts for men Short Sleeved Raya Plain Tops Baju Lelaki Berkolar Oversized 5XL SJ44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-5XL Men's Ice Silk Microfiber T-Shirt Baju Jersey Lelaki Dry fit 运动衣 Solid Color Training/Sports Loose Summer Cool Short Sleeve Casual Dri-Fit Basic Tops for Men Plus Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACE BEAUTY 100% Cotton Unisex Short Sleeve Get rich Printed T-Shirt for Men &amp; Women Loose Neck Round Neck Loose Top OOTD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lelaki men Short Sleeve Solid Color Simple And Easy Matching Waffle Fabric Feel Good Quality</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Evening Folded Handheld Evening Dress Bag Women's Banquet Single Shoulder Oblique Cross Hundred Pleats Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>573 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lavender dress / Korean vintage dress / Contemporary imported Korean style floral patterned women's dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baju Raya 2025 Viral Muslimah Abaya Dress Kaftan Jubah Ironless Chiffon Elegant long Dress Dinner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Johor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Felynn.My】Plus Size 6724 Women Retro Hepburn Style Dress Slim Waist Square Collar Dress gowns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women Vintage Solid Double Layer Muslim Casual Long Sleeve Maxi Sundress White Long Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lovito Casual Ditsy Floral Jacquard Dress for Women LNE70790 Lovito Gaun Kasual Motif Bunga Ditsy Jacquard untuk Wanita LNE70790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beautiful pc body strap dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vietnam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDC57_Ready Stock_xD83D__xDC57_S-XXL Women Bodycon Dress Sexy Sleeveless Suspender Dress Summer Sling Dress Plain Color Inner Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dress Prom Elegant Gaun Pesta Party Ball Gown Night Gown for Women Full Length Square Neck with Short Sleeves Vintage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>517 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long DRESS NAGITA JUMBO CRINKLE AIRFLOW / KAFTAN NAGITA CRINKLE / DRESS V NECK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lovito Casual Plain Split Front Dress for Women L108ED610</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aiyu Sweet Dress/Women's Clothing/Dress/Korean Style</x:t>
   </x:si>
   <x:si>
     <x:t>3.6k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Men's SHOES COOL CASUAL SNEAKERS NEWEST MEN'S SHOES/SCHOOL SHOES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White School Shoes Lace Size 35-46 SG Retailer Sneaker Canvas Casual Men Lady Kid Local Indoor Outdoor Black</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Warrior Shoes School Shoes Warrior Shoe Sneakers Canvas Men Women Kids Unisex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Vulcanized Men's Tall Sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's AND WOMEN'S SNEAKERS 39-43 FASHION &gt;&gt;&gt; |</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Satu7an SPT-06 CASUAL SNEAKERS FOR MEN WOMEN IMPORTED SCHOOL SHOES WHOLESALE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crocs same style loafer shoes for men driving shoes for men men's Wally multicolor men's shoes men's lace-up loafer shoes comfortable and lightweight loafer shoes for men size 39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plus Size 37-47 Women Men Outdoors Hiking Shoes Work Shoes Sport Shoes Running Shoes waterproof Sneakers Winter boots Anti-Slip Trekking Mountain Climbing Shoe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUPERINN Poerwman 500 Sneaker Men Lelaki Sport Shoes Kasut Walking Running Guys Travel Lawa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUTIH Men's Shoes BIG SIZE JUMBO 45 46 47 48 White Sole GUM FREE Socks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Black Shoes Men Running Shoes Black Sneakers Men Shoes Men Shoes Sneakers Sport Shoes Men Kasut Sukan Lelaki Sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X2 Lightning Men's Shoes Men's and Women's Sports Sneakers Daily Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Stone Men's Sports Sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scholl shoes men Flat shoes men Korean Scholl men shoes sports shoes men sneakers big size EU 45 46 47 48 slip on shoes men scholl shoe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elegant Shoes Women Flats Shoes Breathable Flats</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lady comfy knit material pointed flat shoes Kasut Perempuan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Atikota Women Flat Shoes Shallow Mouth Soft Pointed Peas Shoes Ladies Work Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Casual Women's Sneakers Fashion Collection vol-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's Shoes Soft Sole Shoes Women's Casual Shoes Walking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>251 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sneakers women Super soft with super stretch fabric, easy to wear and comfortable.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready stock Fashion Women Sports Leisure mesh rocking shoes women's shoes slope feet muffin shoes women's single shoes 35-42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>☞YOGO☜ Korean Trendy Woman Sneakers Working Casual Canvas Flat Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WZZ Big Size 35-43 Women's Sports Shoes Women's Shoes Sneakers Putars Running Shoes Plus size women's shoes lazy shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Women's Flat Shoes with Youthful Style 3 Inches(a12)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vietnam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Suprome's Latest Women's Sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>250 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cute Teddy Bear Korean Canvas Sneakers Women's Shoes 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Summer Men's Short-Sleeved Newspaper Shirts, Thin Graffiti Trendy Clothes, Printed Loose INS Trendy Tops. Half-Sleeved Shirt.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>⭐SG Stock⭐ Short Sleeve Men Shirt - Anti Non Iron Casual Hidden Button Ironless Crumple Fashion Wrinkle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.2k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEMEJA Men's Plain Shirt Short Sleeve Casual Slim Fit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>622 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Short Sleeve Raglan T-shirt | Misty Gray M71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEMEJA Imported Flannel Shirts for Men and Women Distro Flannel Long Sleeve Men's Plaid Shirts for Men</x:t>
-  </x:si>
-  <x:si>
-    <x:t>235 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Short Sleeve Shirt Summer Hong Kong Style Five Sleeve Top Suit Loose Ins Beach Casual Men's Clothing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men Polo Shirt Korean Version Trendy Hawaii Beach Half-Sleeved Shirt Fashion Casual Lapel Shirt Loose All-Match Couple Shirt Top</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Summer Short-sleeved Printed Shirts for Men, Thin Graffiti Fashion Clothes, Men's and Women's Large-size Wide Tops, and Half-sleeve Polo Shirts.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plain T-SHIRTS short sleeve men women COTTON COMBED 30S/ONECK/UNISEX T-SHIRTS/distro T-shirts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's T-shirt, Men's Polo Shirt with High Quality Cotton Collar, new model 2022, very beautiful striped combination in 4 luxurious and elegant colors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>610 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KEMEJA KATUN HITAM PUTIH MERAH Men's SHIRT BLACK PLAIN LONG SLEEVES DISTRO SLIMFIT CASUAL FORMAL SHIRT BLACK OFFICE HEM BAJU MEN'S SHIRT LONG SLEEVES DISTRO CASUAL CASUAL RELAXING COTTON WORK SERVICE PNS WHITE RED MARUN YELLOW BLACK PREMIUM MEN BOYS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>308 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Summer Short sleeve Button collar oxford fabric slim fit breath comfrotable fashion business mens casual shirts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>475 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plus Size Dresses Women Summer A Line Midi Dress Fashion Korean Temperament Dinner Dress Female Covering Belly Thin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amariel Drawstring Kimono Comfortable Negligee Dress for Pregnant Women Busui Friendly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>390 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zahra WOMEN'S CRINKLE AIRFLOW MIDI DRESS / HOME DRESS / FUJI DRESS WRINKLED FRONT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zalmore Basic Midi Dress with Slit Premium Cotton</x:t>
+    <x:t>Lauren DRAWN DRESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Ready Stock 】Women Fashion Casual Stripe Printed Button Down Split Hem Maxi Shirt Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【WJZ】Women's Fashion Korean Style Puff Sleeve Chiffon Floral Dress【333】</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83C__xDF41_Korean Style Black Long Sleeve Dress Women Waist Slim Turtleneck Skirt【M-3XL】</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lovito Elegant Plain Puff Sleeve Square Neck Dress for Women L65ED170 (White) Lovito Gaun Leher Persegi Lengan Gembung Polos Elegan untuk Wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Style Dress Women New Style Retro French v-Neck Long Dress Narrow Waist Slimmer Look Irregular Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jumbo women's pumpkin long dress 45 kg - 120 kg/oversize long dress/jumbo dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>767 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bohemian Floral Fashion Summer Dress 2024 Women Maxi Long Beach Hawaii Holiday Travel Indian Clothes Casual Korean Baju Style Black Cotton Linen Cool Dresses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEEGO Fashion Loose Long Sleeve Linen Cotton Women Long Dress Plus Size Boho Beach Maxi Dress Summer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dwaf Style_Reyna Gamis Latest Front Button Variation Size Jumbo XXL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sleeveless Plisket Women's Long Dress/Viral Dress 2023/Women's Dress/Women's Clothing/Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZANZEN Korean Women Ladies Loose Square Collar Casual Loose Sleeveless Plain Holiday Long Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[PROMO] baju wanita besar // woman dress plussize // blouse murah // dress tali // dress pregnant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amariel Saona Latest Comfortable Friendly Negligee Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cool Casual Messenger Bag Hong Kong Style Canvas Korean Version of Large-capacity Nylon Joker Harajuku Student Underarm Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 New Canvas Messenger Bag Female Student Korean Shoulder Bag Joker Lazy Wind Bag Large Capacity Tote Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japanese Antique Sense Literary Leisure Girl Student Solid Color Messenger Bag Korean Ins Simple Wild Shoulder Bag Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malaysia Spot New High-Capacity Model Retro Shoulder Bag Women Fashion Vintage Leather Commuter Tote Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High-grade Underarm Bag Half Moon Bag Women's New Niche Design Bag Fashionable Autumn Crescent Bag Handbag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>One-Shoulder Nylon Lazy New Crosbody Simple Elegant Personalized All-Match Casual Japanese-Korean Style Ins Dumpling Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>982 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TSCfashion Korean Version of the New Large-capacity Messenger Bag Women's Casual All-match Solid Color Shoulder Canvas Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N353 READY STOCK MYFOOYIN ROSE Warm Plaid Shoulder Bags Winter Underarm Bags Puffy Handbag Women Lightweight Large Capac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Terengganu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Version of the Simple Large-capacity Underarm Bag Female Students Class Messenger Bag Shopping Bag Autumn Fashion Shoulder Bag Commuter Dumpling Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Fashion New Canvas Bag Female Joker Students Commuter Bag Large Capacity Simple Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Large Capacity Tote Bag Women's New Fashion Corduroy Bucket Bag Student Class Shoulder Bag Sling Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Canvas Women's Large Capacity 2024 New Fashionable Simple Elegant Casual Personality All-match Shoulder Crossbody for Spring and Summer Textile Class Commuter Tote Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women Bag The New Canvas Bag Korean Version High Capacity Shoulder Bags All-Match Tote Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japanese Canvas Bag Women Slung Simple Solid Color Messenger Bag Women Large Capacity College Students Class Bag Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>931 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ins Small Retro Street Photography Simple Large-capacity Messenger Bag Women Joker Casual Shoulder Bag Class Commuter Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Version Trendy Casual Crossbody Bag for Women Fashionable New Fabric One Shoulder Large Capacity Versatile Tote Class and Commuting Crossbody</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Woven Popular Commuter Tote Simple Niche Design Underarm Personality All-match Stylish Large Capacity Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Version of the Trend of Large-capacity Crossbody Bag with a Hundred Japanese Students in the Classroom Bag Girls Fashion New Schoolbag Commuter Bag Casual Simple</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lovito Preppy Plain Colorblock Double Shoulder Strap Multi-pocketed Backpacks L41BA05 (White/Pink/Blue/Black) Preppy Polos Colorblock Tali Bahu Ganda Multi-saku Ransel L41BA05 (Putih/Berwarna Merah Muda/Biru/Hitam)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Version of Trendy Corduroy Crossbody Bag with Letters for Students and Girls Simple and Versatile Single Shoulder Large Capacity Casual Backpack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>295 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoulder Bag Large Capacity Soft Leather Women Handbag Bag Tote Bag Women School Bag for College Students / Beg Wanita 包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashionable New Girl Korean Crossbody Bag Simple Solid Color Student Shoulder Casual Versatile Large Capacity Dumpling Bun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBD Korean Fashion Anti Theft Travel Backpack Bag Galas Wanita Murah CS168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Fashion Canvas Bag Girls New Large Capacity Shoulder Bag Joker Fashion Messenger Bag Simple Student Class Commuter Dumpling Bag</x:t>
   </x:si>
   <x:si>
     <x:t>1.8k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Short Sleeve Dress For Women Summer New Fashion Printed Panel Round Neck Loose Slim Plus Size Ethnic Style Clothes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADOLPH Korean Style Women'S Short Sleeve Cat Print Midi Dresses Woman Derss</x:t>
-  </x:si>
-  <x:si>
-    <x:t>260 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long Dress Soft Fabric Comfortable To Wear Plain Color Korean Style Over The Knees Super Cute.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thailand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Balinese Long Canda Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's Floral Dress Sexy V-neck Dress Korean-Style Mid-Length Printed Dress Summer Short Sleeve Sweet Frock Elegant A-line Skirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New LEXY KNITTED KOREAN STYLE DRESS / WOMEN'S KNITTED BODYCON DRESS / VIRAL MIDI DRESS FREE SHIPPING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chiffon Stitching Dress Women's Summer Dress New Popular Plus Size Women's Fat Mm Slim Slim Temperament Skirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>299 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GentleHappy Fashion Women Cotton Knee-Length Skinny Office Dress Short Sleeve Bodycon Pencil Dress sg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock M-3XL Plus Size Fashion Women' Mickey Mouse Print Summer T-shirt Dresses Korean Teen Low Price Sweet Fairy Basic Middle Length Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean fashion Soft Women Korean Fashion Long Loose Maxi Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>374 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KATUN Basic DRESS KAOS COTTON COMBED 30S PLAIN COTTON TUNIC MIDI PLAIN ADEM CASUAL LILAC PASTEL SAGEGREEN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>676 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KATUN 969 - WOMEN'S JEANS DRESS SHORT SLEEVES COTTON COMBINATION / LONG TUNIC WOMEN'S JEANS SHORT SLEEVES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDF08_ 4.4 SALES_xD83C__xDF08__xD83C__xDDF8__xD83C__xDDEC_ SG LOCAL STOCK _xD83D__xDC07_ _xD83D__xDC5C_ Korean Style Tote Bag | Handbag | Shopping bag | Shoulder bag | Plain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>682 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[Shopee Choice] Trending Viral Women Large Capacity Premium Nylon Waist Bag Belt Bag Crossbody Bag Sling Shoulder</x:t>
+    <x:t>JUSTMET Bowling Bag Women‘s Korean Style Underarm Fashion One-Shoulder Bag Pu Leather Female Ladies chubby bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>223 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's New 2024 Tote Nylon Large Capacity Fashionable Casual Simple Elegant Personalized Nylon Commuter Shoulder Casual Artistic Cloth Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Handbags for Women The Tote Bag for Women Ladies Handbags Office Bags for Women Luxury Designer Handbag Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>school bag Ins college student messenger bag leisure shoulder bag original home retro messenger bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUST MET Crossbody Sling Bag Women Shoulder Leather Underarm Ladies Handbag Female Beg tangan wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In STOCK SUNMI&amp;HOME Niche Design Vintage Shoulder Bag N165 Fashion PU Leather Handbag Casual Commuter Large Capacity Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N02 READY STOCK MYFOOYIN New Canvas Bag Retro Corduroy Crossbody Shoulder Bag Women Large Capacity Student Tote Bag All</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lightweight Nylon Crossbody bag Is A Sashionable Women's Shoulder bag Suitable For Travel And Daily Use</x:t>
   </x:si>
   <x:si>
     <x:t>10.4k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Texture large capacity bucket bag women's new fashion satche</x:t>
-  </x:si>
-  <x:si>
-    <x:t>327 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beautiful Women's Batam Backpack Imported Dollyn Cabella Azela D20183 Women's FASHION 2541</x:t>
-  </x:si>
-  <x:si>
-    <x:t>724 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2291 beautiful fashion imported women's sling bags, wedding sling bags &amp; contemporary</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valenkuci Famous Brand Plaid Casual Ladies Totes Hotsale Party Shopping Work Purse Coin Women Messenger Crossbody Shoulder Handbags</x:t>
-  </x:si>
-  <x:si>
-    <x:t>459 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bag Women New All-match Fashion Shoulder Bag beautiful color Casual simple bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>884 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021 Newest Large Size Jumbo College Work Bag Daily Messy Teenage Women's Tote Bag PU Leather</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crossbody Bags Small bag women's bag new tide Korean fashion shoulder bag women's bag Joker shoulder messenger bag ladies women's bucket bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diata 3 in 1 bag package pk-2513 Guaranteed Realpict</x:t>
-  </x:si>
-  <x:si>
-    <x:t>885 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hot Women's Bags Korean Women's Fashion Sling Bags</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Simple women's bag new 100-style one-shoulder bag European a</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526-New shoulder bag Crossbody Bags Women's bucket bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>721 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nylon Waterproof Canvas Bag Fashion Dumpling Bag Student Shoulder Crossbody Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>476 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoulder Bags for Women Luxury Handbags Women Messenger Bags Tote</x:t>
-  </x:si>
-  <x:si>
-    <x:t>618 sold</x:t>
+    <x:t>READY STOCK Vintage Dumpling Underarm Bag For Women PU Leather Zipper Shoulder Bag (1632)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>387.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Euceane School Bag Ins College Student Messenger Bag Leisure Shoulder Bag Home Retro Messenger Bag Beg Crossbody</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SKM School Travel Shoulder Backpack Bag Pack Bags Handbag Beg Wanita Murah CS134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ladies crossbody bag shoulder bag woman handbag * beg tangan perempuan beg wanita 单肩包，手提包，拉链包包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sarawak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LABER LEE Lightweight Nylon Women Crossbody bag Sashionable Women's Shoulder bag Suitable for Travel and Daily Use</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N165 READY STOCK MYFOOYIN Niche Design Vintage Shoulder Bag Fashion PU Leather Handbag Casual Commuter Large Capacity Wo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual Bag Tote Bag Leather Bag Women Sling Tote Bag Handbeg Beg Perempuan University Bag Beg Student Tote Handbag 手提包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women Elegant Sequins Fashion Chain Sling Shoulder Bag Korean Style Ladies Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N441 READY STOCK MYFOOYIN ROSE Warm Plaid Shoulder Bags Winter Underarm Bags Puffy Handbag Women Lightweight Large Capac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Floral Backpack Fashion Backpack Fresh Student School Bag pu Leather</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crazy Bag Waterproof Bag Large Capacity Canvas Bag Female Messenger Korean Student Harajuku Japanese One-shoulder Large Bag Tote Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Niche Design Handbag Star Female Student Large Capacity Commuting Tote Bag Corduroy Shoulder Crossbody Bag 2023 New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUST MET Boston Bag Women Fashion Shoulder Bag Pu Leather Female Sling Bag Ladies Crossbody Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women bagpack Japan backpack school bag college backpack Student bag waterproof backpack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WBT113_Emimi Handbag Women Handbag Tote Bag Student Women Bag Sling Bag Beg Tangan Wanita Murah Leather Bag Totebag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N311 READY STOCK MYFOOYIN Carmilock Sling Bag Shoulder Women's Handbag Set Tote Beg Tangan Wanita Wallet Purse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12k sold</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -890,7 +1487,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E29"/>
+  <x:dimension ref="A1:E44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -918,7 +1515,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>5.44</x:v>
+        <x:v>24.9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>6</x:v>
@@ -927,7 +1524,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>1400</x:v>
+        <x:v>5900</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -935,169 +1532,169 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>19.47</x:v>
+        <x:v>33.8</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="E3" s="0">
-        <x:v>606</x:v>
+        <x:v>64600</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B4" s="0">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B4" s="0">
-        <x:v>10.79</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="E4" s="0">
-        <x:v>232</x:v>
+        <x:v>3200</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="0">
+        <x:v>18.59</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B5" s="0">
-        <x:v>9.7</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="E5" s="0">
-        <x:v>5</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="0">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B6" s="0">
-        <x:v>6.43</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="E6" s="0">
-        <x:v>376</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B7" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B7" s="0">
-        <x:v>13.9</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="E7" s="0">
-        <x:v>217</x:v>
+        <x:v>859</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B8" s="0">
+        <x:v>43.23</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B8" s="0">
-        <x:v>9.81</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E8" s="0">
-        <x:v>320</x:v>
+        <x:v>737</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B9" s="0">
+        <x:v>25.19</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B9" s="0">
-        <x:v>15.26</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="E9" s="0">
-        <x:v>86</x:v>
+        <x:v>162500</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B10" s="0">
+        <x:v>34.9</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B10" s="0">
-        <x:v>22.89</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="E10" s="0">
-        <x:v>108</x:v>
+        <x:v>1700</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B11" s="0">
+        <x:v>87.79</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B11" s="0">
-        <x:v>10.79</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E11" s="0">
-        <x:v>257</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B12" s="0">
+        <x:v>22.8</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="B12" s="0">
-        <x:v>11.9</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>115</x:v>
+        <x:v>5500</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -1105,16 +1702,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>6.43</x:v>
+        <x:v>10.9</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>125</x:v>
+        <x:v>89800</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1122,16 +1719,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>19.08</x:v>
+        <x:v>19.7</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>552</x:v>
+        <x:v>1900</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -1139,254 +1736,509 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B15" s="0">
-        <x:v>17.9</x:v>
+        <x:v>59.8</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>3600</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B16" s="0">
-        <x:v>7.09</x:v>
+        <x:v>10.9</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>169</x:v>
+        <x:v>66500</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B17" s="0">
-        <x:v>11.9</x:v>
+        <x:v>8.49</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>2700</x:v>
+        <x:v>13800</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B18" s="0">
-        <x:v>17.9</x:v>
+        <x:v>12.11</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>5800</x:v>
+        <x:v>14900</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B19" s="0">
-        <x:v>8.61</x:v>
+        <x:v>18.15</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>130</x:v>
+        <x:v>44200</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B20" s="0">
-        <x:v>6.43</x:v>
+        <x:v>25.11</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>34</x:v>
+        <x:v>40800</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="0">
-        <x:v>10.36</x:v>
+        <x:v>22.3</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>5</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B22" s="0">
-        <x:v>7.41</x:v>
+        <x:v>30.44</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>256</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B23" s="0">
-        <x:v>29.32</x:v>
+        <x:v>18.99</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E23" s="0">
-        <x:v>138</x:v>
+        <x:v>188200</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B24" s="0">
-        <x:v>5.34</x:v>
+        <x:v>25.19</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E24" s="0">
-        <x:v>1</x:v>
+        <x:v>182800</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B25" s="0">
-        <x:v>16.9</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E25" s="0">
-        <x:v>51</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B26" s="0">
-        <x:v>9.7</x:v>
+        <x:v>25.9</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E26" s="0">
-        <x:v>62</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B27" s="0">
-        <x:v>7.52</x:v>
+        <x:v>41.43</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E27" s="0">
-        <x:v>89</x:v>
+        <x:v>183600</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B28" s="0">
-        <x:v>6.53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E28" s="0">
-        <x:v>52</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B29" s="0">
-        <x:v>27.14</x:v>
+        <x:v>14.99</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E29" s="0">
-        <x:v>179</x:v>
+        <x:v>22000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B30" s="0">
+        <x:v>35.8</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E30" s="0">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B31" s="0">
+        <x:v>26.9</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E31" s="0">
+        <x:v>1900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B32" s="0">
+        <x:v>28.83</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E32" s="0">
+        <x:v>1400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B33" s="0">
+        <x:v>9.9</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E33" s="0">
+        <x:v>33500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B34" s="0">
+        <x:v>28.79</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E34" s="0">
+        <x:v>3100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B35" s="0">
+        <x:v>29.9</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E35" s="0">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B36" s="0">
+        <x:v>21.76</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E36" s="0">
+        <x:v>21100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B37" s="0">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E37" s="0">
+        <x:v>704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B38" s="0">
+        <x:v>19.9</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E38" s="0">
+        <x:v>8300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B39" s="0">
+        <x:v>22.5</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E39" s="0">
+        <x:v>996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B40" s="0">
+        <x:v>34.9</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E40" s="0">
+        <x:v>314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B41" s="0">
+        <x:v>26.63</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E41" s="0">
+        <x:v>9700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B42" s="0">
+        <x:v>26.49</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E42" s="0">
+        <x:v>200700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="A43" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B43" s="0">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E43" s="0">
+        <x:v>2400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="A44" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B44" s="0">
+        <x:v>16.06</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E44" s="0">
+        <x:v>22700</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1403,7 +2255,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E14"/>
+  <x:dimension ref="A1:E44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1428,223 +2280,733 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>9.54</x:v>
+        <x:v>11.99</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>1100</x:v>
+        <x:v>2100</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>13.67</x:v>
+        <x:v>18.59</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>1400</x:v>
+        <x:v>384</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>16.9</x:v>
+        <x:v>18.15</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>274</x:v>
+        <x:v>96800</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>16.35</x:v>
+        <x:v>18.59</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>1500</x:v>
+        <x:v>606</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>7.52</x:v>
+        <x:v>10.69</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>135</x:v>
+        <x:v>348700</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B7" s="0">
-        <x:v>13.64</x:v>
+        <x:v>8.25</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>251</x:v>
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B8" s="0">
-        <x:v>14.16</x:v>
+        <x:v>20.79</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>303</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B9" s="0">
-        <x:v>17.99</x:v>
+        <x:v>10.35</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>88</x:v>
+        <x:v>69400</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B10" s="0">
-        <x:v>10.79</x:v>
+        <x:v>29.73</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>46</x:v>
+        <x:v>7800</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B11" s="0">
-        <x:v>14.15</x:v>
+        <x:v>13.5</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>1000</x:v>
+        <x:v>25900</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B12" s="0">
-        <x:v>9.7</x:v>
+        <x:v>24.28</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>62</x:v>
+        <x:v>6400</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>7.52</x:v>
+        <x:v>19.9</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>250</x:v>
+        <x:v>86300</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>7.52</x:v>
+        <x:v>24.09</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>246</x:v>
+        <x:v>1200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B15" s="0">
+        <x:v>25.02</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="E15" s="0">
+        <x:v>142800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B16" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E16" s="0">
+        <x:v>186300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B17" s="0">
+        <x:v>20.98</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E17" s="0">
+        <x:v>5800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B18" s="0">
+        <x:v>9.9</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="E18" s="0">
+        <x:v>6000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B19" s="0">
+        <x:v>17.5</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E19" s="0">
+        <x:v>9100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B20" s="0">
+        <x:v>14.5</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E20" s="0">
+        <x:v>5900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B21" s="0">
+        <x:v>23.8</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E21" s="0">
+        <x:v>740</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B22" s="0">
+        <x:v>24.25</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="E22" s="0">
+        <x:v>364100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B23" s="0">
+        <x:v>21.5</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E23" s="0">
+        <x:v>1300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B24" s="0">
+        <x:v>23.81</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E24" s="0">
+        <x:v>310400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B25" s="0">
+        <x:v>24.9</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="E25" s="0">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B26" s="0">
+        <x:v>19.25</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="E26" s="0">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B27" s="0">
+        <x:v>13.9</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E27" s="0">
+        <x:v>85300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B28" s="0">
+        <x:v>7.8</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E28" s="0">
+        <x:v>9600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B29" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E29" s="0">
+        <x:v>714</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B30" s="0">
+        <x:v>34.9</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E30" s="0">
+        <x:v>15400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B31" s="0">
+        <x:v>27.72</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="E31" s="0">
+        <x:v>11300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B32" s="0">
+        <x:v>24.46</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E32" s="0">
+        <x:v>530</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B33" s="0">
+        <x:v>18.7</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E33" s="0">
+        <x:v>2700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B34" s="0">
+        <x:v>26.87</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E34" s="0">
+        <x:v>8300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B35" s="0">
+        <x:v>24.46</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="E35" s="0">
+        <x:v>640</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B36" s="0">
+        <x:v>20.79</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="E36" s="0">
+        <x:v>20600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B37" s="0">
+        <x:v>15.9</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E37" s="0">
+        <x:v>8200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B38" s="0">
+        <x:v>8.79</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="E38" s="0">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B39" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="E39" s="0">
+        <x:v>40300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B40" s="0">
+        <x:v>23.8</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="E40" s="0">
+        <x:v>769</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B41" s="0">
+        <x:v>25.9</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E41" s="0">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B42" s="0">
+        <x:v>28.5</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E42" s="0">
+        <x:v>10100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="A43" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B43" s="0">
+        <x:v>19.9</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="E43" s="0">
+        <x:v>41900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="A44" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B44" s="0">
+        <x:v>14.41</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="E44" s="0">
+        <x:v>33700</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1661,7 +3023,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E14"/>
+  <x:dimension ref="A1:E34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1686,223 +3048,563 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>10.68</x:v>
+        <x:v>10.7</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>119</x:v>
+        <x:v>14300</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>10.9</x:v>
+        <x:v>10.6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>2200</x:v>
+        <x:v>15800</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>6.65</x:v>
+        <x:v>8.28</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>622</x:v>
+        <x:v>17900</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>3.77</x:v>
+        <x:v>15.8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>5400</x:v>
+        <x:v>109700</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>6.43</x:v>
+        <x:v>9.9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>235</x:v>
+        <x:v>191600</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B7" s="0">
-        <x:v>9.81</x:v>
+        <x:v>17.39</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>1900</x:v>
+        <x:v>6000</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B8" s="0">
-        <x:v>15.04</x:v>
+        <x:v>19.23</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>51</x:v>
+        <x:v>21200</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B9" s="0">
-        <x:v>9.8</x:v>
+        <x:v>10.9</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>97</x:v>
+        <x:v>9100</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B10" s="0">
-        <x:v>10.68</x:v>
+        <x:v>11.9</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>513</x:v>
+        <x:v>28700</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B11" s="0">
-        <x:v>2.79</x:v>
+        <x:v>13.3</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>2800</x:v>
+        <x:v>105800</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B12" s="0">
-        <x:v>8.18</x:v>
+        <x:v>24.7</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>610</x:v>
+        <x:v>1300</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>5.68</x:v>
+        <x:v>17.82</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>308</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>11.12</x:v>
+        <x:v>24.7</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>475</x:v>
+        <x:v>1900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B15" s="0">
+        <x:v>15.5</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="E15" s="0">
+        <x:v>19700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B16" s="0">
+        <x:v>18.5</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E16" s="0">
+        <x:v>1100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B17" s="0">
+        <x:v>11.9</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E17" s="0">
+        <x:v>1100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B18" s="0">
+        <x:v>22.9</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="E18" s="0">
+        <x:v>20200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B19" s="0">
+        <x:v>21.9</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E19" s="0">
+        <x:v>7200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B20" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E20" s="0">
+        <x:v>46400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B21" s="0">
+        <x:v>18.5</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E21" s="0">
+        <x:v>23900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B22" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E22" s="0">
+        <x:v>664</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B23" s="0">
+        <x:v>10.5</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E23" s="0">
+        <x:v>612</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B24" s="0">
+        <x:v>29.9</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="E24" s="0">
+        <x:v>8900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B25" s="0">
+        <x:v>16.2</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="E25" s="0">
+        <x:v>2300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B26" s="0">
+        <x:v>6.9</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="E26" s="0">
+        <x:v>335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B27" s="0">
+        <x:v>19.23</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="E27" s="0">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B28" s="0">
+        <x:v>11.5</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="E28" s="0">
+        <x:v>81700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B29" s="0">
+        <x:v>15.27</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="E29" s="0">
+        <x:v>189000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B30" s="0">
+        <x:v>12.65</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E30" s="0">
+        <x:v>2100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B31" s="0">
+        <x:v>22.9</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="E31" s="0">
+        <x:v>28400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B32" s="0">
+        <x:v>8.9</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E32" s="0">
+        <x:v>1400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B33" s="0">
+        <x:v>15.55</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="E33" s="0">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B34" s="0">
+        <x:v>9.9</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="E34" s="0">
+        <x:v>352500</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1919,7 +3621,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E17"/>
+  <x:dimension ref="A1:E27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1944,274 +3646,444 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>9.94</x:v>
+        <x:v>26.9</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>179</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>11.21</x:v>
+        <x:v>17.49</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>390</x:v>
+        <x:v>1700</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>3.85</x:v>
+        <x:v>23.5</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>16</x:v>
+        <x:v>26000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>12.04</x:v>
+        <x:v>12.99</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>1800</x:v>
+        <x:v>6300</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>11.54</x:v>
+        <x:v>49.9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>77</x:v>
+        <x:v>8200</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B7" s="0">
-        <x:v>6</x:v>
+        <x:v>31.08</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>260</x:v>
+        <x:v>3700</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B8" s="0">
-        <x:v>7.23</x:v>
+        <x:v>15.29</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>190</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B9" s="0">
-        <x:v>8.6</x:v>
+        <x:v>16.99</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>242</x:v>
+        <x:v>32900</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B10" s="0">
-        <x:v>8.43</x:v>
+        <x:v>22.5</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>20</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B11" s="0">
-        <x:v>5.34</x:v>
+        <x:v>9.79</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>40</x:v>
+        <x:v>18200</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B12" s="0">
-        <x:v>17.33</x:v>
+        <x:v>20.89</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>299</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>6</x:v>
+        <x:v>21.89</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>94</x:v>
+        <x:v>3600</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>7.03</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>154</x:v>
+        <x:v>20600</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B15" s="0">
-        <x:v>8.4</x:v>
+        <x:v>28.59</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>374</x:v>
+        <x:v>232700</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B16" s="0">
-        <x:v>8.58</x:v>
+        <x:v>14.5</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>676</x:v>
+        <x:v>27300</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B17" s="0">
-        <x:v>15.15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>14</x:v>
+        <x:v>22100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B18" s="0">
+        <x:v>28.47</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E18" s="0">
+        <x:v>29600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B19" s="0">
+        <x:v>36.25</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E19" s="0">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B20" s="0">
+        <x:v>18.04</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="E20" s="0">
+        <x:v>767</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="B21" s="0">
+        <x:v>30.83</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E21" s="0">
+        <x:v>1700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="B22" s="0">
+        <x:v>26.04</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="E22" s="0">
+        <x:v>2700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B23" s="0">
+        <x:v>14.85</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E23" s="0">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B24" s="0">
+        <x:v>10.89</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="E24" s="0">
+        <x:v>5300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B25" s="0">
+        <x:v>24.79</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E25" s="0">
+        <x:v>8300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B26" s="0">
+        <x:v>28.99</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E26" s="0">
+        <x:v>1400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B27" s="0">
+        <x:v>18.59</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="E27" s="0">
+        <x:v>412</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2228,7 +4100,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E16"/>
+  <x:dimension ref="A1:E49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2253,257 +4125,818 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>8.5</x:v>
+        <x:v>16.8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E2" s="0">
-        <x:v>682</x:v>
+        <x:v>7400</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>3.16</x:v>
+        <x:v>14.75</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>10400</x:v>
+        <x:v>23700</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>14.16</x:v>
+        <x:v>9.8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>327</x:v>
+        <x:v>3900</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>5.34</x:v>
+        <x:v>12.89</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>724</x:v>
+        <x:v>42800</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>14.06</x:v>
+        <x:v>15.54</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>131</x:v>
+        <x:v>28700</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B7" s="0">
-        <x:v>16.34</x:v>
+        <x:v>14.9</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>459</x:v>
+        <x:v>982</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B8" s="0">
-        <x:v>10.89</x:v>
+        <x:v>11.8</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>884</x:v>
+        <x:v>72400</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B9" s="0">
-        <x:v>12.54</x:v>
+        <x:v>11.68</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>167</x:v>
+        <x:v>5500</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B10" s="0">
-        <x:v>12.3</x:v>
+        <x:v>11.8</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>53</x:v>
+        <x:v>4600</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B11" s="0">
-        <x:v>12.54</x:v>
+        <x:v>14.75</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>885</x:v>
+        <x:v>2900</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B12" s="0">
-        <x:v>6</x:v>
+        <x:v>11.33</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>513</x:v>
+        <x:v>7000</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>19.51</x:v>
+        <x:v>14.05</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>54</x:v>
+        <x:v>22500</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>8.61</x:v>
+        <x:v>9.8</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>721</x:v>
+        <x:v>8900</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B15" s="0">
-        <x:v>6.1</x:v>
+        <x:v>14.8</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>476</x:v>
+        <x:v>931</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B16" s="0">
-        <x:v>18.24</x:v>
+        <x:v>12.3</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>618</x:v>
+        <x:v>6000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B17" s="0">
+        <x:v>15.29</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="E17" s="0">
+        <x:v>245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="B18" s="0">
+        <x:v>17.9</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E18" s="0">
+        <x:v>1700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="B19" s="0">
+        <x:v>17.9</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E19" s="0">
+        <x:v>1100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="B20" s="0">
+        <x:v>22.68</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="E20" s="0">
+        <x:v>56000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B21" s="0">
+        <x:v>16.39</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="E21" s="0">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B22" s="0">
+        <x:v>19.89</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="E22" s="0">
+        <x:v>20900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B23" s="0">
+        <x:v>14.9</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="E23" s="0">
+        <x:v>60800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B24" s="0">
+        <x:v>14.5</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="E24" s="0">
+        <x:v>12400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B25" s="0">
+        <x:v>10.8</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="E25" s="0">
+        <x:v>1800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="B26" s="0">
+        <x:v>54.9</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="E26" s="0">
+        <x:v>223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="B27" s="0">
+        <x:v>15.9</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="E27" s="0">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B28" s="0">
+        <x:v>19.99</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="E28" s="0">
+        <x:v>13700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="B29" s="0">
+        <x:v>18.08</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="E29" s="0">
+        <x:v>78100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="0" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B30" s="0">
+        <x:v>44.9</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="E30" s="0">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="0" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="B31" s="0">
+        <x:v>15.59</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="E31" s="0">
+        <x:v>44600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B32" s="0">
+        <x:v>10.42</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E32" s="0">
+        <x:v>25900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="0" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B33" s="0">
+        <x:v>22.5</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="E33" s="0">
+        <x:v>10400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="0" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B34" s="0">
+        <x:v>19.04</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="E34" s="0">
+        <x:v>387200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="0" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B35" s="0">
+        <x:v>13.04</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="E35" s="0">
+        <x:v>5200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="0" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B36" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="E36" s="0">
+        <x:v>14400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B37" s="0">
+        <x:v>8.98</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="E37" s="0">
+        <x:v>10600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B38" s="0">
+        <x:v>12.33</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="E38" s="0">
+        <x:v>72100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B39" s="0">
+        <x:v>14.79</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="E39" s="0">
+        <x:v>84300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="0" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B40" s="0">
+        <x:v>11.89</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="E40" s="0">
+        <x:v>31300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B41" s="0">
+        <x:v>14.09</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="E41" s="0">
+        <x:v>94200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B42" s="0">
+        <x:v>11.38</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="E42" s="0">
+        <x:v>16400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="A43" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B43" s="0">
+        <x:v>9.28</x:v>
+      </x:c>
+      <x:c r="C43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="E43" s="0">
+        <x:v>29500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="A44" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="B44" s="0">
+        <x:v>24.98</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="E44" s="0">
+        <x:v>81600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="A45" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B45" s="0">
+        <x:v>27.07</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="E45" s="0">
+        <x:v>5700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="A46" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="B46" s="0">
+        <x:v>44.9</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="E46" s="0">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="A47" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B47" s="0">
+        <x:v>21.32</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="E47" s="0">
+        <x:v>90400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="A48" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B48" s="0">
+        <x:v>10.79</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="E48" s="0">
+        <x:v>31400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B49" s="0">
+        <x:v>11.8</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="E49" s="0">
+        <x:v>12000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Products_Shopee_filtered.xlsx
+++ b/Data/Products_Shopee_filtered.xlsx
@@ -50,10 +50,40 @@
     <x:t>64.6k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>[READY STOCK] Converse 1970s all star chuck70 high top canvas Sneakers Low help Casual Shoes UNISEX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.2k sold</x:t>
+    <x:t>Ready Stock Size 36-45 2021 Men and Women Fashion Kasut Wanita Breathable Ultra Light Non-slip Casual Sports Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mainland China</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Fast shipping】Men's shoes Korean sports casual thick men's fashion sports shoes running shoes dad men's hiking shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>859 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Venous 2025 New Kasut Putih Lelaki Original 100% White Korean Shoes for Men Sports Shoes Men 白男鞋 Casual Men Shoes 包鞋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pulau Pinang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High quality trendy student board shoes casual for men's shoes Breathable upper Wear-resistant sole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[In Stock] CDG PLAY x Converse 1970s All-Star Shoes Men's Women's Sneakers Low-top Classic Shoes High-top Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>704 sold</x:t>
   </x:si>
   <x:si>
     <x:t>Fashionable Trendy Men's Running &amp; School Sports Shoes</x:t>
@@ -65,397 +95,520 @@
     <x:t>68 sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Anti Work New Wear Protection Waterproof Labor Men's shoes Shoes Leisure Black resistant work Trendy Summer Sports slip</x:t>
+    <x:t>READY STOCK_xD83C__xDF81_Hype Fashion Stripe Sneakers Men Sneakers Men Sport Shoes Kasut Lelaki Murah Walking Running Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Leather Shoes Men Casual Shoes Men Casual Sneakers Men White Shoes Men Pu Sneaker Kasut Jalan Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's shoes new breathable mesh surface sports shoes men's trend everything heightens board shoes casual running daddy shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's sneakers Breathable upper Wear-resistant sole Fashion shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>❤_xD83C__xDF81_Ready Stock_xD83C__xDF81_ ❗️39-44❗️ kasut sport lelaki kasut jalan lelaki jogging lelaki sneakers casual Spring tinggi untuk memba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>745 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIKAZE - JOSEPH Men's Outdoor Sneakers Sport Shoes Kasut Sukan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 Raya Ready Stock Size 36-45 Men's Sport Shoes Casual Kasut sukan lelaki Kasut Lelaki Fashion Man Sneakers Kasut Sport budak Breathable women shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDDF2__xD83C__xDDFE_Ready Stock Original casual shoes Student school shoes Sneakers Kasut lelaki perempuan walking shoes Skateboard Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual high quality stylish student board shoes for men's shoes Wear-resistant sole breathable upper Men's sports shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock FIFTY2 FS172 Sport Men's Sneakers Kasut Lelaki Guys Sneaker Walking Running Man Sport's Shoes Casual Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stok sedia, penghantaran 24 jam kasut putih lelaki sneakers kasut kasual lelaki murah Kasut Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's autumn shoes Martin boots men's British high-top leather shoes casual leather shoes Korean style with black leathe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK WOOHUU Men Outdoor Sneaker Sport Shoes Kasut Sukan Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pahang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock MICOLE S162 Sneakers Men's Sport Kasut Lelaki Men Sneaker Outdoor Shoe Man Shoes Travel Sekolah Women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fanggune Men's Fashion Sports Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Men's Sport Shoes Sneakers Kasut Sukan Lelaki Fashion Harga Murah Harga Lelong Unisex Fashionable Running</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Nova _xD83C__xDF81_ Ready Stock _xD83C__xDF08_ Stripe Sneakers Men Low Tops Sneakers Men Shoes Kasut Lelaki Murah Walking Running Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Kasut Lelaki 2025 Sneakers Men's Shoes Casual Men's Flat Shoes Breathable Summer Leather Sport Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's shoes Korean style business casual leather shoes waterproof soft sole running shoes anti-skate shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pure Black Wear-Resistant Men Shoes School couple Shoes Niche Design Thick Sole Comfortable AllMatch Casual Sports Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stylish All-match Men's Shoes New Breathable Casual Sports Shoes Comfortable Lightweight Running Sneakers Fashion Small White Men Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Sneakers Classic Canvas Shoes Men Shoes Student All black Shoes Sneakers Size 36-45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 Raya Ready Stock Kasut Lelaki Sneakers Casual Men Shoes Men Canvas Sport Shoes Classic Men's Sneakers Comfortable Breathable Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senji Men's Sneakers Shoes Men's Fashion Sneakers Senji Feather School Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_Ready Stock_xD83D__xDD25_kasut lelaki/men shoes/black shoes sport shoes High quality light weight Feather design Hot sale !!!_xD83D__xDD25_</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Original Korean Platform Walking Shoes High Quality Casual Sneakers Comfort Running Shoes For Men Rubber White Size36-44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>124 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Venous 2025 New Kasut Sukan Lelaki Casual Sneakers Men Black Sports Shoes for Men Original Rubber Men's Shoes 男鞋 包鞋男</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83D__xDC9D_GRIMO Borderfill Sneaker Men's Sport's Kasut Outdoor Shoe Lelaki Wanita Women's Sneakers Travel ks10019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Shoes Men's Spring Labor Insurance And The Latest Skin Boys Sneakers Men Shoes 100% Original Shoes Breathing Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>603 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men Light Weight Sport Shoes Sneaker Jogger Shoes K117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men sneakers Breathable upper Wear resistant sole fashion shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>797 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK WOOHUU Men Outdoor Sneaker Sport Shoes Kasut Sukan Lelaki Sneakers Fashion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>996 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83D__xDC9D_ WRIMO Four Garisi Men's Sneakers Shoes Kasut Lelaki Guys Walking Running Sport Man Casual Gift ks05272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Kasut Lelaki Men Shoes Size39-44 Casual Shoes Sneakers Shoes SportS Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Ready Stock】Men's shoes Kasut lelaki Lightweight breathable and fashionable Sports shoes casual shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_Ready Stock_xD83D__xDD25_men shoes/kasut lelaki/kasut sport lelaki/kasut jalan lelaki /kasut sukan High Quality Latest styles_xD83D__xDD25__xD83D__xDD25__xD83D__xDD25_</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Sports Shoes Kasut Sukan Outdoor Sneakers For Men Kasut Perempuan B9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock AD Plus Size 38-48 Couples 6 Colors Fashion Sneakers Kasut Breathable Comfortable and Refreshing Non-slip Running Sport Men's Shoes Women's Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Shoes, EGM Trendy Lace-up Casual Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Venous】2024 Kasut Putih Lelaki Sneakers Original 100% Korean White Shoes for Men Sports Shoes Men 白男鞋 Casual Men Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>304 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Venous】2024 New Kasut Sukan Lelaki Black Sports Shoes for Men Original Rubber Men's Shoes Casual Sneakers for Men</x:t>
+  </x:si>
+  <x:si>
+    <x:t>847 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUTIH Juragan Online - Korean Style UFLINE High Platform White Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Latest Casual Women's Sneakers COEK-NNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>384 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual Women's Shoes Korean Sneakers COEK SW-48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>606 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK WOOHUU fashion new Korean version fashion all-match women's shoes canvas shoes casual comfortable slip-on</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Smartchoice * Women's Flat OL Kasut Wanita Women Rubber Shoes【S39】</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W.P. Kuala Lumpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>348.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cute white shoes for women breathable versatile thick-soled height-increasing super popular sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Online JURAGAN - Korean Style Stephany Bhanolgy Women's Sneakers Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's shoes Wear-resistant and anti-slip Stylish and breathable white shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83D__xDC9D_GRIMO Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita ks14975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUTIH Rulfine Women's Korean Sneakers Shoes Korean Fashion High Platform White Sneakers Women's Shoes</x:t>
   </x:si>
   <x:si>
     <x:t>1.2k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>【Fast shipping】Men's shoes Korean sports casual thick men's fashion sports shoes running shoes dad men's hiking shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>859 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Kasut Perempuan Men and Women super star Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mainland China</x:t>
-  </x:si>
-  <x:si>
-    <x:t>737 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>High quality trendy student board shoes casual for men's shoes Breathable upper Wear-resistant sole</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162.5k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's shoes new breathable mesh surface sports shoes men's trend everything heightens board shoes casual running daddy shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[Supercans] Aj1 Replica High-Top Black White Panda Chicago Obsidian Shadow Gray Men Women Sneakers Basketball Shoes Sports Shoes RT-0002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIKAZE - JOSEPH Men's Outdoor Sneakers Sport Shoes Kasut Sukan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.5k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83C__xDF81_Hype Fashion Stripe Sneakers Men Sneakers Men Sport Shoes Kasut Lelaki Murah Walking Running Sport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025 Raya Ready Stock Size 36-45 Men's Sport Shoes Casual Kasut sukan lelaki Kasut Lelaki Fashion Man Sneakers Kasut Sport budak Breathable women shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Venous 2025 New Kasut Hitam Lelaki Original Kasut Sport Lelaki Sport Black Shoes Men 黑色男鞋 包鞋男 Casual Sneakers Men</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pulau Pinang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Nova _xD83C__xDF81_ Ready Stock _xD83C__xDF08_ Stripe Sneakers Men Low Tops Sneakers Men Shoes Kasut Lelaki Murah Walking Running Sport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66.5k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Men's Sport Shoes Sneakers Kasut Sukan Lelaki Fashion Harga Murah Harga Lelong Unisex Fashionable Running</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock FIFTY2 FS172 Sport Men's Sneakers Kasut Lelaki Guys Sneaker Walking Running Man Sport's Shoes Casual Travel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senji Men's Sneakers Shoes Men's Fashion Sneakers Senji Feather School Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44.2k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Leather Shoes Men Casual Shoes Men Casual Sneakers Men White Shoes Men Pu Sneaker Kasut Jalan Lelaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stok sedia, penghantaran 24 jam kasut putih lelaki sneakers kasut kasual lelaki murah Kasut Lelaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Shoes Men's Spring Labor Insurance And The Latest Skin Boys Sneakers Men Shoes 100% Original Shoes Breathing Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>603 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's sneakers Breathable upper Wear-resistant sole Fashion shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188.2k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Casual high quality stylish student board shoes for men's shoes Wear-resistant sole breathable upper Men's sports shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>182.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDDF2__xD83C__xDDFE_Ready Stock Original casual shoes Student school shoes Sneakers Kasut lelaki perempuan walking shoes Skateboard Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lollipop Fashion_xD83D__xDC9D_Ready Stock_xD83D__xDC9D_Men's shoes Korean trendy sports casual thick soled men's fashion sports shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Kasut Lelaki 2025 Sneakers Men's Shoes Casual Men's Flat Shoes Breathable Summer Leather Sport Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183.6k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Size 36-44 2023 New Men's Casual Fashion Wear-resistant Trend Sports Shoes Mesh Breathable Lightweight Men's Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>355 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stylish All-match Men's Shoes New Breathable Casual Sports Shoes Comfortable Lightweight Running Sneakers Fashion Small White Men Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Venous 2025 Kasut Sukan Lelaki Korean Sports Shoes Men Original Rubber Men's Shoes Fashion Casual Sneakers 男鞋 包鞋男</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK WOOHUU Men Outdoor Sneaker Sport Shoes Kasut Sukan Lelaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pahang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's autumn shoes Martin boots men's British high-top leather shoes casual leather shoes Korean style with black leathe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83D__xDC9D_GRIMO Borderfill Sneaker Men's Sport's Kasut Outdoor Shoe Lelaki Wanita Women's Sneakers Travel ks10019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33.5k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Sports Shoes Kasut Sukan Outdoor Sneakers For Men Kasut Perempuan B9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Casual Leather Shoes Lace Up Formal Shoes Shiny Black Small Leather British Style Shoes Kasut Formal Lelaki男生皮鞋商务鞋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDD25_Ready Stock_xD83D__xDD25_kasut lelaki/men shoes/black shoes sport shoes High quality light weight Feather design Hot sale !!!_xD83D__xDD25_</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[In Stock] CDG PLAY x Converse 1970s All-Star Shoes Men's Women's Sneakers Low-top Classic Shoes High-top Sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>704 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025 Raya Size 38-46 Men's Shoes Mesh Jogging Shoes for Men Casual Walking Shoes Sneakers Mesh Breathable Sneakers on Sale Kasut Bernafas Mesh Lelaki</x:t>
+    <x:t>Premium QUALITY KOREAN WOMEN'S SNEAKERS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ladies casual shoes Fashionable breathability Wear -resistant non -slip Lady Daddy Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【READY STOCK】kasut perempuan/Women's breathable soft soled shoes loafers women Braided shoes women shoes kasut wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Avovi Women Sneakers Thick-soled All-match Sports Shoes Korean Fashion Comfort Breathable Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Deno Sneaker Women's Casual Sports Shoes Kasut Sukan Wanita Sport Shoes For Women 老爹鞋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's sports shoes wear resistant anti slip and breathable Increase height fashion casual shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>364.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's Forrest Gump shoes low-top shoes thick-soled white shoes new style sports style casual sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>740 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Penghantaran 24 jam kasut wanita korean style kasut wanita murah cantik kasut sukan wanita Kasut kasual wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZXSM Women's breathable woven shoes casual sports running women's shoes women's thick soled shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoes Oxford Women Kasut Perempuan Wanita 女鞋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kasut kasual wanita Retro Forrest Gump Shoes Running Casual shoes Soft bottom flat shoes for women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>769 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kasut/kasut perempuan/kasut wanita/Old Beijing cloth shoes women's cotton shoes flat shoes all match mother's shoes warm sports shoes women's shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Kasut Perempuan Women'S Shoes Sneakers Kasut Sukan Wanita Sports Shoes Fly Woven Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Korea Fashion Wedge Sneakers WOmen Low Cut 2lace Students Shoes 5CM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>693 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Ready Stock】Perempuan Kasut Canvas Wanita Canvas Shoes Women white shoes Student leisure sports shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kasut kasual wanita Cute lace stripes Anti-slip and shock absorption Sports and leisure shoes Forrest Gump women's shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>530 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sr Shoes Flatshoes with Ribbon Motif Gsper Latfrom Soll Rubber Anti Slip Trendy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Magni Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Local Ready Stock】【NERO】ABBY Fashion Platform Japanese Style PU Leather Mary Jane Casual High Heels Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jeno Women's Shoes Korean Fashion Casual Sneakers Sport Shoes 9243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUTIH HITAM Unisex women's tassel loafers shoes glass and black autsole flat black yellow white trim eu 36-44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Mr.Kasut 8916 MYELLA Casual Sneakers Shoes Kasut Wanita Sport Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1212 Promotion Malaysia Ready Stock Small White Simple Design Students Sneakers Board Shoes Fashion Casual Women Footwear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women Sneakers Thick-soled All-match Sports Shoes Korean Fashion Comfort Breathable Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dexun women's shoes white shoes new popular flat versatile Forrest Gump shoes sports casual shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Sneakers Casual Rubber White Shoes for women and girl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>714 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McJoden - GATITA Fashion Casual Platform Martin Heels Women Boots</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Namvitae Women Casual Low-top Sneakers Breathable Heightened Mesh Shoes Ladies</x:t>
   </x:si>
   <x:si>
     <x:t>8.3k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>READY STOCK WOOHUU Men Outdoor Sneaker Sport Shoes Kasut Sukan Lelaki Sneakers Fashion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>996 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Shoes Korean Fashion Casual Sneaker Cool design Breathable Men's Shoes Men's Sports Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>314 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025 Raya Ready Stock Kasut Lelaki Sneakers Casual Men Shoes Men Canvas Sport Shoes Classic Men's Sneakers Comfortable Breathable Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's shoes Korean style business casual leather shoes waterproof soft sole running shoes anti-skate shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pure Black Wear-Resistant Men Shoes School couple Shoes Niche Design Thick Sole Comfortable AllMatch Casual Sports Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men Light Weight Sport Shoes Sneaker Jogger Shoes K117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUTIH Juragan Online - Korean Style UFLINE High Platform White Sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Latest Casual Women's Sneakers COEK-NNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>384 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Online JURAGAN - Korean Style Stephany Bhanolgy Women's Sneakers Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Casual Women's Shoes Korean Sneakers COEK SW-48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>606 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Smartchoice * Women's Flat OL Kasut Wanita Women Rubber Shoes【S39】</x:t>
-  </x:si>
-  <x:si>
-    <x:t>W.P. Kuala Lumpur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>348.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83D__xDC9D_GRIMO Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita ks14975</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUTIH Rulfine Women's Korean Sneakers Shoes Korean Fashion High Platform White Sneakers Women's Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoes Oxford Women Kasut Perempuan Wanita 女鞋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Avovi Women Sneakers Thick-soled All-match Sports Shoes Korean Fashion Comfort Breathable Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【READY STOCK】kasut perempuan/Women's breathable soft soled shoes loafers women Braided shoes women shoes kasut wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McJoden - GATITA Fashion Casual Platform Martin Heels Women Boots</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's shoes Wear-resistant and anti-slip Stylish and breathable white shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Premium QUALITY KOREAN WOMEN'S SNEAKERS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cute white shoes for women breathable versatile thick-soled height-increasing super popular sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ladies casual shoes Fashionable breathability Wear -resistant non -slip Lady Daddy Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Kasut Perempuan Women'S Shoes Sneakers Kasut Sukan Wanita Sports Shoes Fly Woven Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kasut/kasut perempuan/kasut wanita/Old Beijing cloth shoes women's cotton shoes flat shoes all match mother's shoes warm sports shoes women's shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZXSM Women's breathable woven shoes casual sports running women's shoes women's thick soled shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Magni Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's Forrest Gump shoes low-top shoes thick-soled white shoes new style sports style casual sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>740 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's sports shoes wear resistant anti slip and breathable Increase height fashion casual shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>364.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Deno Sneaker Women's Casual Sports Shoes Kasut Sukan Wanita Sport Shoes For Women 老爹鞋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Mr.Kasut 8916 MYELLA Casual Sneakers Shoes Kasut Wanita Sport Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Penghantaran 24 jam kasut wanita korean style kasut wanita murah cantik kasut sukan wanita Kasut kasual wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sr Shoes Flatshoes with Ribbon Motif Gsper Latfrom Soll Rubber Anti Slip Trendy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1212 Promotion Malaysia Ready Stock Small White Simple Design Students Sneakers Board Shoes Fashion Casual Women Footwear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85.3k sold</x:t>
+    <x:t>Women's fashion thick-soled sneakers shock-absorbing soles antibacterial good ventilation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juragan Online - DHEA Sneakers Modern Women's Shoes Perfect for HangOuts / NgeMall</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's Sneakers Shoes Full White FREYA Shoes suitable for casual and relaxing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kasut perempuan Sukan Ringan Versatile Flat Wanita shoes Gaya Selebriti Internet Forrest Gump shoes Women's casual shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>825 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MYKUTSU Halbert Women Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock MICOLE S305 Women's Casual Sneakers Outdoor Sports Shoes Travel Kasut Wanita Perempuan Girl Sneaker Women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beli2you Sneakers Women Korean Style Women Shoes Kasut Sneakers Kasut Jalan Perempuan Murah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MYKUTSU Dariel Women Leather Casual Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11.3k sold</x:t>
   </x:si>
   <x:si>
     <x:t>READY STOCK⭐ TWICELOVE Swift Sneaker Women's Unisex Men's Sport's Kasut Outdoor Shoe Lelaki Wanita Travel</x:t>
@@ -464,37 +617,10 @@
     <x:t>9.6k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Korean Sneakers Casual Rubber White Shoes for women and girl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>714 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MYKUTSU Halbert Women Sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MYKUTSU Dariel Women Leather Casual Sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kasut kasual wanita Cute lace stripes Anti-slip and shock absorption Sports and leisure shoes Forrest Gump women's shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>530 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【Local Ready Stock】【NERO】ABBY Fashion Platform Japanese Style PU Leather Mary Jane Casual High Heels Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Namvitae Women Casual Low-top Sneakers Breathable Heightened Mesh Shoes Ladies</x:t>
+    <x:t>READY STOCK_xD83D__xDD25_WEBEE Farah Women's Oxfords Shoes Loafers Women's Flat Shoes Kasut Wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62.8k sold</x:t>
   </x:si>
   <x:si>
     <x:t>Silver thick-soled lightweight Forrest Gump shoes for women retro sneakers new autumn all-match casual white shoes</x:t>
@@ -503,616 +629,595 @@
     <x:t>640 sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Fcb Women's Shoes Fashion Collection Sneakers *FREE SOCKS*</x:t>
+    <x:t>READYSTOCK Magni Women Outdoor Sneakers Sport Shoes Kasut Sukan Wanita Comfort Shoes 343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stok sedia, penghantaran 24 jam，kasut wanita，kasut wanita murah cantik，kasut putih，kasut sukan perempuan，kasut kasual wa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83C__xDF81_WEBEE 804 Deno Sneaker Women's Casual Sports Shoes Kasut Sukan Wanita Sport Shoes For Women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Breathable Increase height fashion casual shoes and Korean simple and cute women's shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>323.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Classic Simple Letter Round Neck Short Sleeve T-shirt Student Couple Loose Casual Retro Versatile Tee Fried Street Half Sleeve Fashion Tops</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Short Sleeve T-shirt Set Men Summer Two Piece Sets Baju T Shirt Lelaki Sports Set Men Fashion Casual Set Summer Korean Short-sleeved T-shirt Men's Two-piece Shorts T-shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>✦Local Shipping✦COD kemeja pendek lengan lelaki Korean Ice Silk black shirt for men Short Sleeved Shirt 男生 襯衫 短袖</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oversize T-shirt Korean Style clothes Loose Half-Sleeve Unisex Baju tshirt Lelaki Men tshirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sabah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIX Korean men's short sleeved casual shirt Business formal shirt Mint smooth loose polo shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Versatile Letter Printed Casual Base T-shirt Unisex Baju T Shirt Lelaki Summer Comfortable Simple Clean Round Neck Short Sleeve Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T Shirt Lelaki Baju Lelaki T Shirt Waffle Fabric Round Neck Half Sleeve Good Quality M-3XL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y-3 Kemeja Pullover Lengan Pendek Linen Lelaki Men's Casual Solid Color Short Sleeve Pullover Shirt Linen Stand Collar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOOKA Shirt Men Kemeja Lelaki Korean style Fashion Polo Shirt Plain Shirt Short Sleeved Shirt Men Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kedah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_Promosi Murah_xD83D__xDD25_ New York TShirt 100% Cotton Unisex Men Women Round Neck Short Sleeve Baju Lelaki Wanita Ready Stock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEKE Embroidered Logo T-shirt Men Short Sleeve Tops Lelaki Lengan Pendek Baju tshirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>✅READY STOCK big loose shirt harajuku trend clothes couple set men plus size cotton t-shirt drew baju black</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JDEN Oversized T-shirt 270gsm (Unisex) - 100% Cotton Tshirt Lelaki Perempuan 40-120KG Plus Size - Baju Lelaki/Perempuan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Men's Summer Ice Silk High Quality Half Sleeve Plain Shirt Korean 3 4 Sleeve Stand Collar Slim Fit Trend Tops White\ Black\ Green</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tshirt Oversized Men Streetwear Top Vintage Baju Lelaki Size Besar Graphic Printed Korean Style American Minimalist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEKE Lapel Shirt Men Casual Plain Short Sleeve Men Shirt Korean style Fashion Polo Shirt Unsex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EVENDAYS summer American men's T -shirt pure cotton half -sleeved leisure female couple tide brand hip -hop style</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACE BEAUTY 100% Cotton Unisex Short Sleeve Printed Simple style T-Shirt for Men &amp; Women Loose Neck Round Neck Loose Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COD bleached T-shirt 100 cotton oversized deep black hip-hop retro couple shirt 69169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y-3White Slim Fit Shirt Man Summer Plain All-match Casual Short Sleeve Waffle Shirt Men Baju Kemeja Lelaki Lengan Pendek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[70% Mega Sales !] Nasa Tshirt Fashion Baju Nasa Round Neck Tshirt 100% Cotton Man T-Shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer New INS Fashion Trend Loose Printed T-shirt for Men Short-sleeve Round Neck Tee Couple Clothes Black/White S-5XL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T-shirt lelaki, T-shirt leher bulat, T-shirt fashionable, lengan pendek, warna berbilang untuk dipilih dari#T51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>American Retro Street Casual Large T-shirt Men's Half Sleeve Loose Round Neck Summer Female Student Letter Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【M-5XL】American Style Vintage Fashion Simple Design Print Men T Shirt Oversized Sports Short Sleeve Oversize Plus Size Round Neck T-shirts Trendy Tees Couple Unisex Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>379 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_Promosi Murah_xD83D__xDD25_TShirt 100% Cotton Unisex Men Women Round Neck Short Sleeve Baju Lelaki Wanita Ready Stock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【COD】100% cotton light luxury original street wear unisex bercetak T-shirt longgar top shirt untuk lelaki T shirt lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>664 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEKE Men's T-shirt Embroidered Logo Raglan Sleeve T-shirt Lelaki Lengan Pendek Baju</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_Promosi Murah_xD83D__xDD25_ One Piece 57 TShirt 100% Cotton Unisex Men Women Round Neck Short Sleeve Baju Lelaki Wanita Ready Stock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_Local Delivery Men's POLO Shirt Linen Kurta Casual Kemeja Lelaki T-shirts for men Short Sleeved Raya Plain Tops Baju Lelaki Berkolar Oversized 5XL SJ44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>M-5XL Men's Ice Silk Microfiber T-Shirt Baju Jersey Lelaki Dry fit 运动衣 Solid Color Training/Sports Loose Summer Cool Short Sleeve Casual Dri-Fit Basic Tops for Men Plus Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACE BEAUTY 100% Cotton Unisex Short Sleeve Get rich Printed T-Shirt for Men &amp; Women Loose Neck Round Neck Loose Top OOTD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lelaki men Short Sleeve Solid Color Simple And Easy Matching Waffle Fabric Feel Good Quality</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Evening Folded Handheld Evening Dress Bag Women's Banquet Single Shoulder Oblique Cross Hundred Pleats Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>573 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lavender dress / Korean vintage dress / Contemporary imported Korean style floral patterned women's dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baju Raya 2025 Viral Muslimah Abaya Dress Kaftan Jubah Ironless Chiffon Elegant long Dress Dinner</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Johor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[READY STOCK] Women Lady's Ice Silk Nightwear Dress V Shape Design Slip Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lovito Casual Ditsy Floral Jacquard Dress for Women LNE70790 Lovito Gaun Kasual Motif Bunga Ditsy Jacquard untuk Wanita LNE70790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Long DRESS NAGITA JUMBO CRINKLE AIRFLOW / KAFTAN NAGITA CRINKLE / DRESS V NECK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.2k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDC57_Ready Stock_xD83D__xDC57_S-XXL Women Bodycon Dress Sexy Sleeveless Suspender Dress Summer Sling Dress Plain Color Inner Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Felynn.My】Plus Size 6724 Women Retro Hepburn Style Dress Slim Waist Square Collar Dress gowns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lovito Casual Plain Split Front Dress for Women L108ED610</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dress Prom Elegant Gaun Pesta Party Ball Gown Night Gown for Women Full Length Square Neck with Short Sleeves Vintage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>517 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women Vintage Solid Double Layer Muslim Casual Long Sleeve Maxi Sundress White Long Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Style Dress Women New Style Retro French v-Neck Long Dress Narrow Waist Slimmer Look Irregular Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bohemian Floral Fashion Summer Dress 2024 Women Maxi Long Beach Hawaii Holiday Travel Indian Clothes Casual Korean Baju Style Black Cotton Linen Cool Dresses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beautiful pc body strap dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vietnam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Autumn Vintage Plaid Fake Two Piece Dress French Square Neck Lace Panel Long Sleeve Mid length Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jumbo women's pumpkin long dress 45 kg - 120 kg/oversize long dress/jumbo dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>767 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lovito Elegant Plain Puff Sleeve Square Neck Dress for Women L65ED170 (White) Lovito Gaun Leher Persegi Lengan Gembung Polos Elegan untuk Wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lauren DRAWN DRESS</x:t>
   </x:si>
   <x:si>
     <x:t>20.6k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>【Ready Stock】Perempuan Kasut Canvas Wanita Canvas Shoes Women white shoes Student leisure sports shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.2k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's Sneakers Shoes Full White FREYA Shoes suitable for casual and relaxing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83D__xDD25_WEBEE 1308 Sui Felsy Women Korean Style Fashion Casual Platform Martin Thick Sole Strap Casual Oxford Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kasut kasual wanita Retro Forrest Gump Shoes Running Casual shoes Soft bottom flat shoes for women</x:t>
-  </x:si>
-  <x:si>
-    <x:t>769 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's fashion thick-soled sneakers shock-absorbing soles antibacterial good ventilation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>306 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83C__xDF81_WEBEE 804 Deno Sneaker Women's Casual Sports Shoes Kasut Sukan Wanita Sport Shoes For Women</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lady knit full black sneaker shoes ( school shoes ) kasut perempuan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beli2you Sneakers Women Korean Style Women Shoes Kasut Sneakers Kasut Jalan Perempuan Murah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Classic Simple Letter Round Neck Short Sleeve T-shirt Student Couple Loose Casual Retro Versatile Tee Fried Street Half Sleeve Fashion Tops</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Short Sleeve T-shirt Set Men Summer Two Piece Sets Baju T Shirt Lelaki Sports Set Men Fashion Casual Set Summer Korean Short-sleeved T-shirt Men's Two-piece Shorts T-shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T Shirt Lelaki Baju Lelaki T Shirt Waffle Fabric Round Neck Half Sleeve Good Quality M-3XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOOKA Shirt Men Kemeja Lelaki Korean style Fashion Polo Shirt Plain Shirt Short Sleeved Shirt Men Top</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kedah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDD25_Promosi Murah_xD83D__xDD25_ New York TShirt 100% Cotton Unisex Men Women Round Neck Short Sleeve Baju Lelaki Wanita Ready Stock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191.6k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIX Korean men's short sleeved casual shirt Business formal shirt Mint smooth loose polo shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>✅READY STOCK big loose shirt harajuku trend clothes couple set men plus size cotton t-shirt drew baju black</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21.2k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Versatile Letter Printed Casual Base T-shirt Unisex Baju T Shirt Lelaki Summer Comfortable Simple Clean Round Neck Short Sleeve Top</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZEKE Embroidered Logo T-shirt Men Short Sleeve Tops Lelaki Lengan Pendek Baju tshirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>✦Local Shipping✦COD kemeja pendek lengan lelaki Korean Ice Silk black shirt for men Short Sleeved Shirt 男生 襯衫 短袖</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oversize T-shirt Korean Style clothes Loose Half-Sleeve Unisex Baju tshirt Lelaki Men tshirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sabah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y-3 Kemeja Pullover Lengan Pendek Linen Lelaki Men's Casual Solid Color Short Sleeve Pullover Shirt Linen Stand Collar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZEKE Lapel Shirt Men Casual Plain Short Sleeve Men Shirt Korean style Fashion Polo Shirt Unsex</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EVENDAYS summer American men's T -shirt pure cotton half -sleeved leisure female couple tide brand hip -hop style</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACE BEAUTY 100% Cotton Unisex Short Sleeve Printed Simple style T-Shirt for Men &amp; Women Loose Neck Round Neck Loose Top</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JDEN Oversized T-shirt 270gsm (Unisex) - 100% Cotton Tshirt Lelaki Perempuan 40-120KG Plus Size - Baju Lelaki/Perempuan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20.2k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Men's Summer Ice Silk High Quality Half Sleeve Plain Shirt Korean 3 4 Sleeve Stand Collar Slim Fit Trend Tops White\ Black\ Green</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.2k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tshirt Oversized Men Streetwear Top Vintage Baju Lelaki Size Besar Graphic Printed Korean Style American Minimalist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Summer New INS Fashion Trend Loose Printed T-shirt for Men Short-sleeve Round Neck Tee Couple Clothes Black/White S-5XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【COD】100% cotton light luxury original street wear unisex bercetak T-shirt longgar top shirt untuk lelaki T shirt lelaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>664 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACE BEAUTY 100%Cotton Unisex Short Sleeve Printed Casual and simple T-Shirt for Men Loose Neck Round Neck Loose Top OOTD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>612 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[12 Colors]Kemeja Pullover Lengan Pendek Linen Lelaki Men's Casual Solid Color Short Sleeve Pullover Shirt Linen Stand Collar Summer Beach Basic Polo Shirt Brown\Khaki\Light Blue\Green\Coffee\White\Black</x:t>
+    <x:t>Aiyu Sweet Dress/Women's Clothing/Dress/Korean Style</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDC57_Ready Stock_xD83D__xDC57_New Korean Women Blue Fishtail Floral Dress Casual Elegant Long Sleeve Fashion Chiffon Loose Long dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65.5k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lovito Casual Ditsy Floral Tie Front Structure Line Pattern Dress for Women L121AD1167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COD Korean V-neck women's dress looks slimmer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEEGO Fashion Loose Long Sleeve Linen Cotton Women Long Dress Plus Size Boho Beach Maxi Dress Summer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer 2024 New Dress Blue Black Camisole Sleeveless Dress Cross Bow Slim Waist Long Dress Elegant A-line Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>409 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sleeveless Plisket Women's Long Dress/Viral Dress 2023/Women's Dress/Women's Clothing/Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Canda Double Ruffle Long Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>383 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cool Casual Messenger Bag Hong Kong Style Canvas Korean Version of Large-capacity Nylon Joker Harajuku Student Underarm Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 New Canvas Messenger Bag Female Student Korean Shoulder Bag Joker Lazy Wind Bag Large Capacity Tote Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malaysia Spot New High-Capacity Model Retro Shoulder Bag Women Fashion Vintage Leather Commuter Tote Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42.8k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japanese Antique Sense Literary Leisure Girl Student Solid Color Messenger Bag Korean Ins Simple Wild Shoulder Bag Female</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High-grade Underarm Bag Half Moon Bag Women's New Niche Design Bag Fashionable Autumn Crescent Bag Handbag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>One-Shoulder Nylon Lazy New Crosbody Simple Elegant Personalized All-Match Casual Japanese-Korean Style Ins Dumpling Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>982 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TSCfashion Korean Version of the New Large-capacity Messenger Bag Women's Casual All-match Solid Color Shoulder Canvas Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Version of the Simple Large-capacity Underarm Bag Female Students Class Messenger Bag Shopping Bag Autumn Fashion Shoulder Bag Commuter Dumpling Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUSTMET Bowling Bag Women‘s Korean Style Underarm Fashion One-Shoulder Bag Pu Leather Female Ladies chubby bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>223 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Large Capacity Tote Bag Women's New Fashion Corduroy Bucket Bag Student Class Shoulder Bag Sling Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Fashion New Canvas Bag Female Joker Students Commuter Bag Large Capacity Simple Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Elegant Fashion Design Shoulder Crossbody Stylish Solid Color Personalized Simple All-match Retro Bright Face Small Square Textile Underarm Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBD Korean Fashion Anti Theft Travel Backpack Bag Galas Wanita Murah CS168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women Bag The New Canvas Bag Korean Version High Capacity Shoulder Bags All-Match Tote Bag</x:t>
   </x:si>
   <x:si>
     <x:t>8.9k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Y-3White Slim Fit Shirt Man Summer Plain All-match Casual Short Sleeve Waffle Shirt Men Baju Kemeja Lelaki Lengan Pendek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T-shirt lelaki, T-shirt leher bulat, T-shirt fashionable, lengan pendek, warna berbilang untuk dipilih dari#T51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COD bleached T-shirt 100 cotton oversized deep black hip-hop retro couple shirt 69169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Original Street Plus Size Student Leisure Unisex T-shirt American Retro Youth Round Neck Short Sleeve Top</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Man button blouse tees men shirt Hawaiian shirt beach flower shirt short-sleeved shirt men loose casual vintage shirt men floral shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>American Retro Street Casual Large T-shirt Men's Half Sleeve Loose Round Neck Summer Female Student Letter Top</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDD25_Local Delivery Men's POLO Shirt Linen Kurta Casual Kemeja Lelaki T-shirts for men Short Sleeved Raya Plain Tops Baju Lelaki Berkolar Oversized 5XL SJ44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>M-5XL Men's Ice Silk Microfiber T-Shirt Baju Jersey Lelaki Dry fit 运动衣 Solid Color Training/Sports Loose Summer Cool Short Sleeve Casual Dri-Fit Basic Tops for Men Plus Size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACE BEAUTY 100% Cotton Unisex Short Sleeve Get rich Printed T-Shirt for Men &amp; Women Loose Neck Round Neck Loose Top OOTD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lelaki men Short Sleeve Solid Color Simple And Easy Matching Waffle Fabric Feel Good Quality</x:t>
-  </x:si>
-  <x:si>
-    <x:t>352.5k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Evening Folded Handheld Evening Dress Bag Women's Banquet Single Shoulder Oblique Cross Hundred Pleats Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>573 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lavender dress / Korean vintage dress / Contemporary imported Korean style floral patterned women's dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baju Raya 2025 Viral Muslimah Abaya Dress Kaftan Jubah Ironless Chiffon Elegant long Dress Dinner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Johor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【Felynn.My】Plus Size 6724 Women Retro Hepburn Style Dress Slim Waist Square Collar Dress gowns</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women Vintage Solid Double Layer Muslim Casual Long Sleeve Maxi Sundress White Long Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lovito Casual Ditsy Floral Jacquard Dress for Women LNE70790 Lovito Gaun Kasual Motif Bunga Ditsy Jacquard untuk Wanita LNE70790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beautiful pc body strap dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vietnam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDC57_Ready Stock_xD83D__xDC57_S-XXL Women Bodycon Dress Sexy Sleeveless Suspender Dress Summer Sling Dress Plain Color Inner Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dress Prom Elegant Gaun Pesta Party Ball Gown Night Gown for Women Full Length Square Neck with Short Sleeves Vintage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>517 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Long DRESS NAGITA JUMBO CRINKLE AIRFLOW / KAFTAN NAGITA CRINKLE / DRESS V NECK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18.2k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lovito Casual Plain Split Front Dress for Women L108ED610</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aiyu Sweet Dress/Women's Clothing/Dress/Korean Style</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.6k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lauren DRAWN DRESS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【Ready Stock 】Women Fashion Casual Stripe Printed Button Down Split Hem Maxi Shirt Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>232.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【WJZ】Women's Fashion Korean Style Puff Sleeve Chiffon Floral Dress【333】</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83C__xDF41_Korean Style Black Long Sleeve Dress Women Waist Slim Turtleneck Skirt【M-3XL】</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lovito Elegant Plain Puff Sleeve Square Neck Dress for Women L65ED170 (White) Lovito Gaun Leher Persegi Lengan Gembung Polos Elegan untuk Wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29.6k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Style Dress Women New Style Retro French v-Neck Long Dress Narrow Waist Slimmer Look Irregular Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jumbo women's pumpkin long dress 45 kg - 120 kg/oversize long dress/jumbo dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>767 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bohemian Floral Fashion Summer Dress 2024 Women Maxi Long Beach Hawaii Holiday Travel Indian Clothes Casual Korean Baju Style Black Cotton Linen Cool Dresses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZEEGO Fashion Loose Long Sleeve Linen Cotton Women Long Dress Plus Size Boho Beach Maxi Dress Summer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dwaf Style_Reyna Gamis Latest Front Button Variation Size Jumbo XXL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sleeveless Plisket Women's Long Dress/Viral Dress 2023/Women's Dress/Women's Clothing/Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.3k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZANZEN Korean Women Ladies Loose Square Collar Casual Loose Sleeveless Plain Holiday Long Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[PROMO] baju wanita besar // woman dress plussize // blouse murah // dress tali // dress pregnant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Amariel Saona Latest Comfortable Friendly Negligee Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cool Casual Messenger Bag Hong Kong Style Canvas Korean Version of Large-capacity Nylon Joker Harajuku Student Underarm Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024 New Canvas Messenger Bag Female Student Korean Shoulder Bag Joker Lazy Wind Bag Large Capacity Tote Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japanese Antique Sense Literary Leisure Girl Student Solid Color Messenger Bag Korean Ins Simple Wild Shoulder Bag Female</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malaysia Spot New High-Capacity Model Retro Shoulder Bag Women Fashion Vintage Leather Commuter Tote Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>High-grade Underarm Bag Half Moon Bag Women's New Niche Design Bag Fashionable Autumn Crescent Bag Handbag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>One-Shoulder Nylon Lazy New Crosbody Simple Elegant Personalized All-Match Casual Japanese-Korean Style Ins Dumpling Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>982 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TSCfashion Korean Version of the New Large-capacity Messenger Bag Women's Casual All-match Solid Color Shoulder Canvas Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N353 READY STOCK MYFOOYIN ROSE Warm Plaid Shoulder Bags Winter Underarm Bags Puffy Handbag Women Lightweight Large Capac</x:t>
+    <x:t>Handbags for Women The Tote Bag for Women Ladies Handbags Office Bags for Women Luxury Designer Handbag Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japanese Canvas Bag Women Slung Simple Solid Color Messenger Bag Women Large Capacity College Students Class Bag Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>931 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoulder Bag Large Capacity Soft Leather Women Handbag Bag Tote Bag Women School Bag for College Students / Beg Wanita 包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20.9k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ins Small Retro Street Photography Simple Large-capacity Messenger Bag Women Joker Casual Shoulder Bag Class Commuter Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Woven Popular Commuter Tote Simple Niche Design Underarm Personality All-match Stylish Large Capacity Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Version Trendy Casual Crossbody Bag for Women Fashionable New Fabric One Shoulder Large Capacity Versatile Tote Class and Commuting Crossbody</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Js Fashion Large Size Women Romance Handbag Shoulder Bag Handbag Beg Tangan Wanita Murah Branded Tote Bag HB2055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Version of Trendy Corduroy Crossbody Bag with Letters for Students and Girls Simple and Versatile Single Shoulder Large Capacity Casual Backpack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>295 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Version of the Trend of Large-capacity Crossbody Bag with a Hundred Japanese Students in the Classroom Bag Girls Fashion New Schoolbag Commuter Bag Casual Simple</x:t>
+  </x:si>
+  <x:si>
+    <x:t>school bag Ins college student messenger bag leisure shoulder bag original home retro messenger bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78.1k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In STOCK SUNMI&amp;HOME Niche Design Vintage Shoulder Bag N165 Fashion PU Leather Handbag Casual Commuter Large Capacity Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Designer Bags Luxury Handbag Women Casual Shoulder Bag Simple Underarm Tote Fashion Versatile Crossbody Bag for Girls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N02 READY STOCK MYFOOYIN New Canvas Bag Retro Corduroy Crossbody Shoulder Bag Women Large Capacity Student Tote Bag All</x:t>
   </x:si>
   <x:si>
     <x:t>Terengganu</x:t>
   </x:si>
   <x:si>
-    <x:t>Korean Version of the Simple Large-capacity Underarm Bag Female Students Class Messenger Bag Shopping Bag Autumn Fashion Shoulder Bag Commuter Dumpling Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.6k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Fashion New Canvas Bag Female Joker Students Commuter Bag Large Capacity Simple Shoulder Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Large Capacity Tote Bag Women's New Fashion Corduroy Bucket Bag Student Class Shoulder Bag Sling Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Canvas Women's Large Capacity 2024 New Fashionable Simple Elegant Casual Personality All-match Shoulder Crossbody for Spring and Summer Textile Class Commuter Tote Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.5k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women Bag The New Canvas Bag Korean Version High Capacity Shoulder Bags All-Match Tote Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japanese Canvas Bag Women Slung Simple Solid Color Messenger Bag Women Large Capacity College Students Class Bag Shoulder Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>931 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ins Small Retro Street Photography Simple Large-capacity Messenger Bag Women Joker Casual Shoulder Bag Class Commuter Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Version Trendy Casual Crossbody Bag for Women Fashionable New Fabric One Shoulder Large Capacity Versatile Tote Class and Commuting Crossbody</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Woven Popular Commuter Tote Simple Niche Design Underarm Personality All-match Stylish Large Capacity Shoulder Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Version of the Trend of Large-capacity Crossbody Bag with a Hundred Japanese Students in the Classroom Bag Girls Fashion New Schoolbag Commuter Bag Casual Simple</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lovito Preppy Plain Colorblock Double Shoulder Strap Multi-pocketed Backpacks L41BA05 (White/Pink/Blue/Black) Preppy Polos Colorblock Tali Bahu Ganda Multi-saku Ransel L41BA05 (Putih/Berwarna Merah Muda/Biru/Hitam)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Version of Trendy Corduroy Crossbody Bag with Letters for Students and Girls Simple and Versatile Single Shoulder Large Capacity Casual Backpack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>295 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoulder Bag Large Capacity Soft Leather Women Handbag Bag Tote Bag Women School Bag for College Students / Beg Wanita 包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20.9k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashionable New Girl Korean Crossbody Bag Simple Solid Color Student Shoulder Casual Versatile Large Capacity Dumpling Bun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BBD Korean Fashion Anti Theft Travel Backpack Bag Galas Wanita Murah CS168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Fashion Canvas Bag Girls New Large Capacity Shoulder Bag Joker Fashion Messenger Bag Simple Student Class Commuter Dumpling Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.8k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUSTMET Bowling Bag Women‘s Korean Style Underarm Fashion One-Shoulder Bag Pu Leather Female Ladies chubby bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>223 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's New 2024 Tote Nylon Large Capacity Fashionable Casual Simple Elegant Personalized Nylon Commuter Shoulder Casual Artistic Cloth Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Handbags for Women The Tote Bag for Women Ladies Handbags Office Bags for Women Luxury Designer Handbag Shoulder Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.7k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>school bag Ins college student messenger bag leisure shoulder bag original home retro messenger bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78.1k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUST MET Crossbody Sling Bag Women Shoulder Leather Underarm Ladies Handbag Female Beg tangan wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In STOCK SUNMI&amp;HOME Niche Design Vintage Shoulder Bag N165 Fashion PU Leather Handbag Casual Commuter Large Capacity Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44.6k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N02 READY STOCK MYFOOYIN New Canvas Bag Retro Corduroy Crossbody Shoulder Bag Women Large Capacity Student Tote Bag All</x:t>
-  </x:si>
-  <x:si>
     <x:t>Lightweight Nylon Crossbody bag Is A Sashionable Women's Shoulder bag Suitable For Travel And Daily Use</x:t>
   </x:si>
   <x:si>
     <x:t>10.4k sold</x:t>
   </x:si>
   <x:si>
+    <x:t>SKM School Travel Shoulder Backpack Bag Pack Bags Handbag Beg Wanita Murah CS134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.4k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ladies crossbody bag shoulder bag woman handbag * beg tangan perempuan beg wanita 单肩包，手提包，拉链包包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sarawak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Euceane School Bag Ins College Student Messenger Bag Leisure Shoulder Bag Home Retro Messenger Bag Beg Crossbody</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.2k sold</x:t>
+  </x:si>
+  <x:si>
     <x:t>READY STOCK Vintage Dumpling Underarm Bag For Women PU Leather Zipper Shoulder Bag (1632)</x:t>
   </x:si>
   <x:si>
     <x:t>387.2k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Euceane School Bag Ins College Student Messenger Bag Leisure Shoulder Bag Home Retro Messenger Bag Beg Crossbody</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.2k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SKM School Travel Shoulder Backpack Bag Pack Bags Handbag Beg Wanita Murah CS134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ladies crossbody bag shoulder bag woman handbag * beg tangan perempuan beg wanita 单肩包，手提包，拉链包包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sarawak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10.6k sold</x:t>
-  </x:si>
-  <x:si>
     <x:t>LABER LEE Lightweight Nylon Women Crossbody bag Sashionable Women's Shoulder bag Suitable for Travel and Daily Use</x:t>
   </x:si>
   <x:si>
     <x:t>72.1k sold</x:t>
   </x:si>
   <x:si>
+    <x:t>Casual Bag Tote Bag Leather Bag Women Sling Tote Bag Handbeg Beg Perempuan University Bag Beg Student Tote Handbag 手提包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31.3k sold</x:t>
+  </x:si>
+  <x:si>
     <x:t>N165 READY STOCK MYFOOYIN Niche Design Vintage Shoulder Bag Fashion PU Leather Handbag Casual Commuter Large Capacity Wo</x:t>
   </x:si>
   <x:si>
     <x:t>84.3k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Casual Bag Tote Bag Leather Bag Women Sling Tote Bag Handbeg Beg Perempuan University Bag Beg Student Tote Handbag 手提包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31.3k sold</x:t>
-  </x:si>
-  <x:si>
     <x:t>Women Elegant Sequins Fashion Chain Sling Shoulder Bag Korean Style Ladies Shoulder Bag</x:t>
   </x:si>
   <x:si>
     <x:t>94.2k sold</x:t>
   </x:si>
   <x:si>
+    <x:t>N311 READY STOCK MYFOOYIN Carmilock Sling Bag Shoulder Women's Handbag Set Tote Beg Tangan Wanita Wallet Purse</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Niche Design Handbag Star Female Student Large Capacity Commuting Tote Bag Corduroy Shoulder Crossbody Bag 2023 New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.7k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crazy Bag Waterproof Bag Large Capacity Canvas Bag Female Messenger Korean Student Harajuku Japanese One-shoulder Large Bag Tote Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81.6k sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Pleated Bag for Woman Shoulder Hand Bag Women Shopping Beg Tangan 手提包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rhombus Embroidery Thread Large-Capacity Large Bag Female Popular New Style Trendy Fashion One-Shoulder Messenger Influencer Dumpling</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5k sold</x:t>
+  </x:si>
+  <x:si>
     <x:t>N441 READY STOCK MYFOOYIN ROSE Warm Plaid Shoulder Bags Winter Underarm Bags Puffy Handbag Women Lightweight Large Capac</x:t>
   </x:si>
   <x:si>
     <x:t>16.4k sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Floral Backpack Fashion Backpack Fresh Student School Bag pu Leather</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29.5k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crazy Bag Waterproof Bag Large Capacity Canvas Bag Female Messenger Korean Student Harajuku Japanese One-shoulder Large Bag Tote Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81.6k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Niche Design Handbag Star Female Student Large Capacity Commuting Tote Bag Corduroy Shoulder Crossbody Bag 2023 New</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.7k sold</x:t>
+    <x:t>Female Bag New Style Large-Capacity Corduroy Bag Fashionable All-Match Messenger Bag College Student Shou</x:t>
+  </x:si>
+  <x:si>
+    <x:t>388 sold</x:t>
   </x:si>
   <x:si>
     <x:t>JUST MET Boston Bag Women Fashion Shoulder Bag Pu Leather Female Sling Bag Ladies Crossbody Bag</x:t>
@@ -1131,12 +1236,6 @@
   </x:si>
   <x:si>
     <x:t>31.4k sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N311 READY STOCK MYFOOYIN Carmilock Sling Bag Shoulder Women's Handbag Set Tote Beg Tangan Wanita Wallet Purse</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12k sold</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1549,33 +1648,33 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>109</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>3200</x:v>
+        <x:v>24800</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>18.59</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>68</x:v>
+        <x:v>859</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -1583,50 +1682,50 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>34</x:v>
+        <x:v>39.8</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>1200</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B7" s="0">
-        <x:v>25</x:v>
+        <x:v>25.19</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>859</x:v>
+        <x:v>162500</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B8" s="0">
-        <x:v>43.23</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>737</x:v>
+        <x:v>704</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -1634,67 +1733,67 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B9" s="0">
-        <x:v>25.19</x:v>
+        <x:v>18.59</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>162500</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B10" s="0">
-        <x:v>34.9</x:v>
+        <x:v>10.9</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>1700</x:v>
+        <x:v>89800</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B11" s="0">
-        <x:v>87.79</x:v>
+        <x:v>25.11</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>10</x:v>
+        <x:v>40800</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B12" s="0">
-        <x:v>22.8</x:v>
+        <x:v>34.9</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>5500</x:v>
+        <x:v>1700</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -1702,7 +1801,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>10.9</x:v>
+        <x:v>18.99</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>6</x:v>
@@ -1711,7 +1810,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>89800</x:v>
+        <x:v>188200</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1719,16 +1818,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>19.7</x:v>
+        <x:v>31.62</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>1900</x:v>
+        <x:v>745</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -1736,7 +1835,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B15" s="0">
-        <x:v>59.8</x:v>
+        <x:v>22.8</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>36</x:v>
@@ -1745,7 +1844,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>4</x:v>
+        <x:v>5500</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1753,16 +1852,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B16" s="0">
-        <x:v>10.9</x:v>
+        <x:v>19.7</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>66500</x:v>
+        <x:v>1900</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
@@ -1770,7 +1869,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B17" s="0">
-        <x:v>8.49</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>6</x:v>
@@ -1779,7 +1878,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>13800</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -1787,7 +1886,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B18" s="0">
-        <x:v>12.11</x:v>
+        <x:v>25.19</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>6</x:v>
@@ -1796,7 +1895,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>14900</x:v>
+        <x:v>182800</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -1804,16 +1903,16 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B19" s="0">
-        <x:v>18.15</x:v>
+        <x:v>12.11</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>44200</x:v>
+        <x:v>14900</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -1821,7 +1920,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B20" s="0">
-        <x:v>25.11</x:v>
+        <x:v>22.3</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>6</x:v>
@@ -1830,7 +1929,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>40800</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
@@ -1838,7 +1937,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B21" s="0">
-        <x:v>22.3</x:v>
+        <x:v>28.83</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>6</x:v>
@@ -1847,7 +1946,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>116</x:v>
+        <x:v>1400</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1855,16 +1954,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B22" s="0">
-        <x:v>30.44</x:v>
+        <x:v>26.9</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>603</x:v>
+        <x:v>1900</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
@@ -1872,7 +1971,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B23" s="0">
-        <x:v>18.99</x:v>
+        <x:v>9.39</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>6</x:v>
@@ -1881,7 +1980,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E23" s="0">
-        <x:v>188200</x:v>
+        <x:v>41800</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1889,16 +1988,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B24" s="0">
-        <x:v>25.19</x:v>
+        <x:v>18.15</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="E24" s="0">
-        <x:v>182800</x:v>
+        <x:v>40400</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
@@ -1906,7 +2005,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B25" s="0">
-        <x:v>28</x:v>
+        <x:v>8.49</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>6</x:v>
@@ -1915,7 +2014,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E25" s="0">
-        <x:v>1100</x:v>
+        <x:v>13800</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
@@ -1923,7 +2022,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B26" s="0">
-        <x:v>25.9</x:v>
+        <x:v>10.9</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>6</x:v>
@@ -1932,7 +2031,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E26" s="0">
-        <x:v>157</x:v>
+        <x:v>66500</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
@@ -1943,7 +2042,7 @@
         <x:v>41.43</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>61</x:v>
@@ -1957,16 +2056,16 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B28" s="0">
-        <x:v>66</x:v>
+        <x:v>26.49</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="E28" s="0">
-        <x:v>355</x:v>
+        <x:v>200700</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1974,7 +2073,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B29" s="0">
-        <x:v>14.99</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>6</x:v>
@@ -1983,7 +2082,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="E29" s="0">
-        <x:v>22000</x:v>
+        <x:v>2400</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
@@ -1991,16 +2090,16 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B30" s="0">
-        <x:v>35.8</x:v>
+        <x:v>14.99</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="E30" s="0">
-        <x:v>5</x:v>
+        <x:v>22000</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
@@ -2008,16 +2107,16 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B31" s="0">
-        <x:v>26.9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E31" s="0">
-        <x:v>1900</x:v>
+        <x:v>5300</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
@@ -2025,16 +2124,16 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B32" s="0">
-        <x:v>28.83</x:v>
+        <x:v>26.63</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
       <x:c r="E32" s="0">
-        <x:v>1400</x:v>
+        <x:v>9700</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -2042,16 +2141,16 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B33" s="0">
-        <x:v>9.9</x:v>
+        <x:v>18.15</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
       <x:c r="E33" s="0">
-        <x:v>33500</x:v>
+        <x:v>44200</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
@@ -2059,7 +2158,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B34" s="0">
-        <x:v>28.79</x:v>
+        <x:v>21.76</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>6</x:v>
@@ -2068,7 +2167,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E34" s="0">
-        <x:v>3100</x:v>
+        <x:v>21100</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
@@ -2076,7 +2175,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B35" s="0">
-        <x:v>29.9</x:v>
+        <x:v>29.29</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>6</x:v>
@@ -2085,7 +2184,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E35" s="0">
-        <x:v>53</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
@@ -2093,16 +2192,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B36" s="0">
-        <x:v>21.76</x:v>
+        <x:v>35.8</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="E36" s="0">
-        <x:v>21100</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
@@ -2110,7 +2209,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B37" s="0">
-        <x:v>189</x:v>
+        <x:v>9.9</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>6</x:v>
@@ -2119,7 +2218,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E37" s="0">
-        <x:v>704</x:v>
+        <x:v>33500</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
@@ -2127,16 +2226,16 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B38" s="0">
-        <x:v>19.9</x:v>
+        <x:v>30.44</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="E38" s="0">
-        <x:v>8300</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
@@ -2144,16 +2243,16 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B39" s="0">
-        <x:v>22.5</x:v>
+        <x:v>16.06</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="E39" s="0">
-        <x:v>996</x:v>
+        <x:v>22700</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
@@ -2161,7 +2260,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B40" s="0">
-        <x:v>34.9</x:v>
+        <x:v>21.8</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>6</x:v>
@@ -2170,7 +2269,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E40" s="0">
-        <x:v>314</x:v>
+        <x:v>797</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
@@ -2178,16 +2277,16 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B41" s="0">
-        <x:v>26.63</x:v>
+        <x:v>22.5</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="E41" s="0">
-        <x:v>9700</x:v>
+        <x:v>996</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
@@ -2195,7 +2294,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B42" s="0">
-        <x:v>26.49</x:v>
+        <x:v>7.9</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>6</x:v>
@@ -2204,7 +2303,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E42" s="0">
-        <x:v>200700</x:v>
+        <x:v>123100</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
@@ -2212,16 +2311,16 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B43" s="0">
-        <x:v>31</x:v>
+        <x:v>31.56</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
       <x:c r="E43" s="0">
-        <x:v>2400</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
@@ -2229,7 +2328,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B44" s="0">
-        <x:v>16.06</x:v>
+        <x:v>20.66</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>6</x:v>
@@ -2238,7 +2337,109 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E44" s="0">
-        <x:v>22700</x:v>
+        <x:v>25400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="A45" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B45" s="0">
+        <x:v>22.31</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E45" s="0">
+        <x:v>872</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="A46" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B46" s="0">
+        <x:v>28.79</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E46" s="0">
+        <x:v>3100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="A47" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B47" s="0">
+        <x:v>30.8</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E47" s="0">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="A48" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B48" s="0">
+        <x:v>23.65</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E48" s="0">
+        <x:v>213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B49" s="0">
+        <x:v>45.8</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E49" s="0">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="A50" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B50" s="0">
+        <x:v>35.8</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E50" s="0">
+        <x:v>847</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2280,16 +2481,16 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>11.99</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>2100</x:v>
@@ -2297,16 +2498,16 @@
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>18.59</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>384</x:v>
@@ -2314,50 +2515,50 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>18.15</x:v>
+        <x:v>18.59</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>96800</x:v>
+        <x:v>606</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>18.59</x:v>
+        <x:v>12.5</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>606</x:v>
+        <x:v>85700</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B6" s="0">
         <x:v>10.69</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>348700</x:v>
@@ -2365,585 +2566,585 @@
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B7" s="0">
-        <x:v>8.25</x:v>
+        <x:v>25.02</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>15000</x:v>
+        <x:v>142800</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B8" s="0">
-        <x:v>20.79</x:v>
+        <x:v>18.15</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>1200</x:v>
+        <x:v>96800</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B9" s="0">
-        <x:v>10.35</x:v>
+        <x:v>19.9</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>69400</x:v>
+        <x:v>86300</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B10" s="0">
-        <x:v>29.73</x:v>
+        <x:v>8.25</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>7800</x:v>
+        <x:v>15000</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B11" s="0">
-        <x:v>13.5</x:v>
+        <x:v>20.79</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>25900</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B12" s="0">
-        <x:v>24.28</x:v>
+        <x:v>24.09</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>6400</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>19.9</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>86300</x:v>
+        <x:v>186300</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>24.09</x:v>
+        <x:v>13.5</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>1200</x:v>
+        <x:v>25900</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B15" s="0">
-        <x:v>25.02</x:v>
+        <x:v>29.73</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>142800</x:v>
+        <x:v>7800</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B16" s="0">
-        <x:v>28</x:v>
+        <x:v>21.5</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>186300</x:v>
+        <x:v>1300</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B17" s="0">
-        <x:v>20.98</x:v>
+        <x:v>24.25</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>5800</x:v>
+        <x:v>364100</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B18" s="0">
-        <x:v>9.9</x:v>
+        <x:v>23.8</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>6000</x:v>
+        <x:v>740</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B19" s="0">
-        <x:v>17.5</x:v>
+        <x:v>24.9</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>9100</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B20" s="0">
-        <x:v>14.5</x:v>
+        <x:v>17.5</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>5900</x:v>
+        <x:v>9100</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B21" s="0">
-        <x:v>23.8</x:v>
+        <x:v>10.35</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>740</x:v>
+        <x:v>69400</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B22" s="0">
-        <x:v>24.25</x:v>
+        <x:v>23.8</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>364100</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B23" s="0">
-        <x:v>21.5</x:v>
+        <x:v>9.9</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E23" s="0">
-        <x:v>1300</x:v>
+        <x:v>6000</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B24" s="0">
-        <x:v>23.81</x:v>
+        <x:v>20.98</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E24" s="0">
-        <x:v>310400</x:v>
+        <x:v>5800</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B25" s="0">
-        <x:v>24.9</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E25" s="0">
-        <x:v>213</x:v>
+        <x:v>693</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B26" s="0">
-        <x:v>19.25</x:v>
+        <x:v>15.9</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E26" s="0">
-        <x:v>21</x:v>
+        <x:v>8200</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B27" s="0">
-        <x:v>13.9</x:v>
+        <x:v>24.46</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E27" s="0">
-        <x:v>85300</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B28" s="0">
-        <x:v>7.8</x:v>
+        <x:v>19.25</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E28" s="0">
-        <x:v>9600</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B29" s="0">
-        <x:v>28</x:v>
+        <x:v>14.5</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E29" s="0">
-        <x:v>714</x:v>
+        <x:v>5900</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B30" s="0">
-        <x:v>34.9</x:v>
+        <x:v>18.7</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E30" s="0">
-        <x:v>15400</x:v>
+        <x:v>2700</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B31" s="0">
-        <x:v>27.72</x:v>
+        <x:v>21.9</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E31" s="0">
-        <x:v>11300</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B32" s="0">
-        <x:v>24.46</x:v>
+        <x:v>20.79</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E32" s="0">
-        <x:v>530</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B33" s="0">
-        <x:v>18.7</x:v>
+        <x:v>31.46</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E33" s="0">
-        <x:v>2700</x:v>
+        <x:v>60900</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B34" s="0">
-        <x:v>26.87</x:v>
+        <x:v>23.81</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E34" s="0">
-        <x:v>8300</x:v>
+        <x:v>310400</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B35" s="0">
-        <x:v>24.46</x:v>
+        <x:v>13.9</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E35" s="0">
-        <x:v>640</x:v>
+        <x:v>85300</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B36" s="0">
-        <x:v>20.79</x:v>
+        <x:v>16.45</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E36" s="0">
-        <x:v>20600</x:v>
+        <x:v>22200</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B37" s="0">
-        <x:v>15.9</x:v>
+        <x:v>25.8</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E37" s="0">
-        <x:v>8200</x:v>
+        <x:v>1300</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B38" s="0">
-        <x:v>8.79</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E38" s="0">
-        <x:v>22</x:v>
+        <x:v>714</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B39" s="0">
-        <x:v>8</x:v>
+        <x:v>24.28</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E39" s="0">
-        <x:v>40300</x:v>
+        <x:v>6400</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B40" s="0">
-        <x:v>23.8</x:v>
+        <x:v>26.87</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E40" s="0">
-        <x:v>769</x:v>
+        <x:v>8300</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B41" s="0">
         <x:v>25.9</x:v>
@@ -2952,7 +3153,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E41" s="0">
         <x:v>306</x:v>
@@ -2960,53 +3161,274 @@
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B42" s="0">
-        <x:v>28.5</x:v>
+        <x:v>16.39</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E42" s="0">
-        <x:v>10100</x:v>
+        <x:v>465</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B43" s="0">
-        <x:v>19.9</x:v>
+        <x:v>8.79</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E43" s="0">
-        <x:v>41900</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B44" s="0">
+        <x:v>25.8</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="E44" s="0">
+        <x:v>1500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="A45" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B45" s="0">
+        <x:v>31.9</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="E45" s="0">
+        <x:v>825</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="A46" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B46" s="0">
+        <x:v>34.9</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="E46" s="0">
+        <x:v>15400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="A47" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B47" s="0">
+        <x:v>12.9</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="E47" s="0">
+        <x:v>174400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="A48" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B48" s="0">
         <x:v>14.41</x:v>
       </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="E44" s="0">
+      <x:c r="C48" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D48" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="E48" s="0">
         <x:v>33700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B49" s="0">
+        <x:v>28.99</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E49" s="0">
+        <x:v>11300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="A50" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B50" s="0">
+        <x:v>7.8</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="E50" s="0">
+        <x:v>9600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:5">
+      <x:c r="A51" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B51" s="0">
+        <x:v>5.5</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="E51" s="0">
+        <x:v>62800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5">
+      <x:c r="A52" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B52" s="0">
+        <x:v>24.46</x:v>
+      </x:c>
+      <x:c r="C52" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="E52" s="0">
+        <x:v>640</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5">
+      <x:c r="A53" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B53" s="0">
+        <x:v>16.9</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="E53" s="0">
+        <x:v>197100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5">
+      <x:c r="A54" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B54" s="0">
+        <x:v>31.9</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E54" s="0">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:5">
+      <x:c r="A55" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B55" s="0">
+        <x:v>19.9</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="E55" s="0">
+        <x:v>7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:5">
+      <x:c r="A56" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B56" s="0">
+        <x:v>28.5</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E56" s="0">
+        <x:v>10100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:5">
+      <x:c r="A57" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B57" s="0">
+        <x:v>24.25</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E57" s="0">
+        <x:v>323500</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3048,7 +3470,7 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>10.7</x:v>
@@ -3057,7 +3479,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>14300</x:v>
@@ -3065,7 +3487,7 @@
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>10.6</x:v>
@@ -3074,7 +3496,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>15800</x:v>
@@ -3082,58 +3504,58 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>8.28</x:v>
+        <x:v>13.3</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>17900</x:v>
+        <x:v>105800</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>15.8</x:v>
+        <x:v>24.7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>109700</x:v>
+        <x:v>1300</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>9.9</x:v>
+        <x:v>24.7</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>191600</x:v>
+        <x:v>1900</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B7" s="0">
         <x:v>17.39</x:v>
@@ -3142,7 +3564,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>6000</x:v>
@@ -3150,460 +3572,477 @@
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B8" s="0">
-        <x:v>19.23</x:v>
+        <x:v>10.9</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>21200</x:v>
+        <x:v>9100</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B9" s="0">
-        <x:v>10.9</x:v>
+        <x:v>8.28</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>9100</x:v>
+        <x:v>17900</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B10" s="0">
-        <x:v>11.9</x:v>
+        <x:v>17.82</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>28700</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B11" s="0">
-        <x:v>13.3</x:v>
+        <x:v>15.8</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>105800</x:v>
+        <x:v>109700</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B12" s="0">
-        <x:v>24.7</x:v>
+        <x:v>9.9</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>1300</x:v>
+        <x:v>191600</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>17.82</x:v>
+        <x:v>11.9</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>1500</x:v>
+        <x:v>28700</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>24.7</x:v>
+        <x:v>19.23</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>1900</x:v>
+        <x:v>21200</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B15" s="0">
-        <x:v>15.5</x:v>
+        <x:v>22.9</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>19700</x:v>
+        <x:v>20200</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B16" s="0">
-        <x:v>18.5</x:v>
+        <x:v>21.9</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>1100</x:v>
+        <x:v>7200</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B17" s="0">
-        <x:v>11.9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>1100</x:v>
+        <x:v>46400</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B18" s="0">
-        <x:v>22.9</x:v>
+        <x:v>15.5</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>20200</x:v>
+        <x:v>19700</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B19" s="0">
-        <x:v>21.9</x:v>
+        <x:v>18.5</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>7200</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B20" s="0">
-        <x:v>16</x:v>
+        <x:v>11.9</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>46400</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B21" s="0">
-        <x:v>18.5</x:v>
+        <x:v>19.23</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>23900</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B22" s="0">
-        <x:v>19</x:v>
+        <x:v>16.2</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>664</x:v>
+        <x:v>2300</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B23" s="0">
-        <x:v>10.5</x:v>
+        <x:v>9.9</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E23" s="0">
-        <x:v>612</x:v>
+        <x:v>5100</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B24" s="0">
-        <x:v>29.9</x:v>
+        <x:v>18.5</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E24" s="0">
-        <x:v>8900</x:v>
+        <x:v>23900</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B25" s="0">
-        <x:v>16.2</x:v>
+        <x:v>6.9</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E25" s="0">
-        <x:v>2300</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B26" s="0">
-        <x:v>6.9</x:v>
+        <x:v>12.65</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E26" s="0">
-        <x:v>335</x:v>
+        <x:v>2100</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B27" s="0">
-        <x:v>19.23</x:v>
+        <x:v>13.09</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="E27" s="0">
-        <x:v>303</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B28" s="0">
-        <x:v>11.5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E28" s="0">
-        <x:v>81700</x:v>
+        <x:v>7800</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B29" s="0">
-        <x:v>15.27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E29" s="0">
-        <x:v>189000</x:v>
+        <x:v>664</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B30" s="0">
-        <x:v>12.65</x:v>
+        <x:v>14.5</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E30" s="0">
-        <x:v>2100</x:v>
+        <x:v>12600</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B31" s="0">
-        <x:v>22.9</x:v>
+        <x:v>10.38</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E31" s="0">
-        <x:v>28400</x:v>
+        <x:v>250900</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B32" s="0">
-        <x:v>8.9</x:v>
+        <x:v>22.9</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E32" s="0">
-        <x:v>1400</x:v>
+        <x:v>28400</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B33" s="0">
-        <x:v>15.55</x:v>
+        <x:v>8.9</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E33" s="0">
-        <x:v>1000</x:v>
+        <x:v>1400</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B34" s="0">
+        <x:v>15.55</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="E34" s="0">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B35" s="0">
         <x:v>9.9</x:v>
       </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="E34" s="0">
+      <x:c r="C35" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="E35" s="0">
         <x:v>352500</x:v>
       </x:c>
     </x:row>
@@ -3646,7 +4085,7 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>26.9</x:v>
@@ -3655,7 +4094,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>573</x:v>
@@ -3663,16 +4102,16 @@
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>17.49</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>1700</x:v>
@@ -3680,16 +4119,16 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B4" s="0">
         <x:v>23.5</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>26000</x:v>
@@ -3697,237 +4136,237 @@
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>12.99</x:v>
+        <x:v>6.26</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>6300</x:v>
+        <x:v>72000</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>49.9</x:v>
+        <x:v>31.08</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>8200</x:v>
+        <x:v>3700</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="B7" s="0">
-        <x:v>31.08</x:v>
+        <x:v>9.79</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>3700</x:v>
+        <x:v>18200</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B8" s="0">
-        <x:v>15.29</x:v>
+        <x:v>16.99</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>1000</x:v>
+        <x:v>32900</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B9" s="0">
-        <x:v>16.99</x:v>
+        <x:v>12.99</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>32900</x:v>
+        <x:v>6300</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B10" s="0">
-        <x:v>22.5</x:v>
+        <x:v>20.89</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>517</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B11" s="0">
-        <x:v>9.79</x:v>
+        <x:v>22.5</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>18200</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B12" s="0">
-        <x:v>20.89</x:v>
+        <x:v>49.9</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>1100</x:v>
+        <x:v>8200</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>21.89</x:v>
+        <x:v>36.25</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>3600</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>13</x:v>
+        <x:v>30.83</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>20600</x:v>
+        <x:v>1700</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B15" s="0">
-        <x:v>28.59</x:v>
+        <x:v>15.29</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>232700</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B16" s="0">
-        <x:v>14.5</x:v>
+        <x:v>38.78</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>27300</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B17" s="0">
-        <x:v>26</x:v>
+        <x:v>18.04</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>22100</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B18" s="0">
         <x:v>28.47</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E18" s="0">
         <x:v>29600</x:v>
@@ -3935,155 +4374,155 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B19" s="0">
-        <x:v>36.25</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>91</x:v>
+        <x:v>20600</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B20" s="0">
-        <x:v>18.04</x:v>
+        <x:v>21.89</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>767</x:v>
+        <x:v>3600</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="B21" s="0">
-        <x:v>30.83</x:v>
+        <x:v>30.15</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>1700</x:v>
+        <x:v>65500</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B22" s="0">
-        <x:v>26.04</x:v>
+        <x:v>39.49</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>2700</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B23" s="0">
-        <x:v>14.85</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E23" s="0">
-        <x:v>91</x:v>
+        <x:v>40900</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B24" s="0">
-        <x:v>10.89</x:v>
+        <x:v>26.04</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E24" s="0">
-        <x:v>5300</x:v>
+        <x:v>2700</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B25" s="0">
-        <x:v>24.79</x:v>
+        <x:v>21.34</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E25" s="0">
-        <x:v>8300</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B26" s="0">
-        <x:v>28.99</x:v>
+        <x:v>10.89</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
       <x:c r="E26" s="0">
-        <x:v>1400</x:v>
+        <x:v>5300</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B27" s="0">
-        <x:v>18.59</x:v>
+        <x:v>16.07</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E27" s="0">
-        <x:v>412</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4125,7 +4564,7 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B2" s="0">
         <x:v>16.8</x:v>
@@ -4134,7 +4573,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>7400</x:v>
@@ -4142,7 +4581,7 @@
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>14.75</x:v>
@@ -4151,7 +4590,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>23700</x:v>
@@ -4159,41 +4598,41 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>9.8</x:v>
+        <x:v>12.89</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>3900</x:v>
+        <x:v>42800</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>12.89</x:v>
+        <x:v>9.8</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>42800</x:v>
+        <x:v>3900</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B6" s="0">
         <x:v>15.54</x:v>
@@ -4202,7 +4641,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>28700</x:v>
@@ -4210,7 +4649,7 @@
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B7" s="0">
         <x:v>14.9</x:v>
@@ -4219,7 +4658,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>982</x:v>
@@ -4227,7 +4666,7 @@
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B8" s="0">
         <x:v>11.8</x:v>
@@ -4236,7 +4675,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>72400</x:v>
@@ -4244,628 +4683,628 @@
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B9" s="0">
-        <x:v>11.68</x:v>
+        <x:v>11.8</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>5500</x:v>
+        <x:v>4600</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B10" s="0">
-        <x:v>11.8</x:v>
+        <x:v>54.9</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>4600</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B11" s="0">
-        <x:v>14.75</x:v>
+        <x:v>11.33</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>2900</x:v>
+        <x:v>7000</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B12" s="0">
-        <x:v>11.33</x:v>
+        <x:v>14.75</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>7000</x:v>
+        <x:v>2900</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B13" s="0">
-        <x:v>14.05</x:v>
+        <x:v>15.98</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>22500</x:v>
+        <x:v>3000</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B14" s="0">
-        <x:v>9.8</x:v>
+        <x:v>14.5</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>8900</x:v>
+        <x:v>12400</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B15" s="0">
-        <x:v>14.8</x:v>
+        <x:v>9.8</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>931</x:v>
+        <x:v>8900</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B16" s="0">
-        <x:v>12.3</x:v>
+        <x:v>19.99</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>6000</x:v>
+        <x:v>13700</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B17" s="0">
-        <x:v>15.29</x:v>
+        <x:v>14.8</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>245</x:v>
+        <x:v>931</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B18" s="0">
-        <x:v>17.9</x:v>
+        <x:v>19.89</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>1700</x:v>
+        <x:v>20900</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B19" s="0">
-        <x:v>17.9</x:v>
+        <x:v>12.3</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>1100</x:v>
+        <x:v>6000</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B20" s="0">
-        <x:v>22.68</x:v>
+        <x:v>17.9</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>56000</x:v>
+        <x:v>1700</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="B21" s="0">
-        <x:v>16.39</x:v>
+        <x:v>15.29</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>295</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B22" s="0">
-        <x:v>19.89</x:v>
+        <x:v>13.59</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>20900</x:v>
+        <x:v>52100</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B23" s="0">
-        <x:v>14.9</x:v>
+        <x:v>16.39</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="E23" s="0">
-        <x:v>60800</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B24" s="0">
-        <x:v>14.5</x:v>
+        <x:v>17.9</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E24" s="0">
-        <x:v>12400</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B25" s="0">
-        <x:v>10.8</x:v>
+        <x:v>18.08</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="E25" s="0">
-        <x:v>1800</x:v>
+        <x:v>78100</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B26" s="0">
-        <x:v>54.9</x:v>
+        <x:v>15.59</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E26" s="0">
-        <x:v>223</x:v>
+        <x:v>44600</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B27" s="0">
-        <x:v>15.9</x:v>
+        <x:v>21.99</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E27" s="0">
-        <x:v>31</x:v>
+        <x:v>7000</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B28" s="0">
-        <x:v>19.99</x:v>
+        <x:v>10.42</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E28" s="0">
-        <x:v>13700</x:v>
+        <x:v>25900</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B29" s="0">
-        <x:v>18.08</x:v>
+        <x:v>22.5</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E29" s="0">
-        <x:v>78100</x:v>
+        <x:v>10400</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B30" s="0">
-        <x:v>44.9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E30" s="0">
-        <x:v>183</x:v>
+        <x:v>14400</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B31" s="0">
-        <x:v>15.59</x:v>
+        <x:v>8.98</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E31" s="0">
-        <x:v>44600</x:v>
+        <x:v>10600</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B32" s="0">
-        <x:v>10.42</x:v>
+        <x:v>13.04</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E32" s="0">
-        <x:v>25900</x:v>
+        <x:v>5200</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B33" s="0">
-        <x:v>22.5</x:v>
+        <x:v>19.04</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E33" s="0">
-        <x:v>10400</x:v>
+        <x:v>387200</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B34" s="0">
-        <x:v>19.04</x:v>
+        <x:v>12.33</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="E34" s="0">
-        <x:v>387200</x:v>
+        <x:v>72100</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B35" s="0">
-        <x:v>13.04</x:v>
+        <x:v>11.89</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="E35" s="0">
-        <x:v>5200</x:v>
+        <x:v>31300</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B36" s="0">
-        <x:v>5</x:v>
+        <x:v>14.79</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E36" s="0">
-        <x:v>14400</x:v>
+        <x:v>84300</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B37" s="0">
-        <x:v>8.98</x:v>
+        <x:v>14.09</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="E37" s="0">
-        <x:v>10600</x:v>
+        <x:v>94200</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B38" s="0">
-        <x:v>12.33</x:v>
+        <x:v>11.8</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E38" s="0">
-        <x:v>72100</x:v>
+        <x:v>12000</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B39" s="0">
-        <x:v>14.79</x:v>
+        <x:v>27.07</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E39" s="0">
-        <x:v>84300</x:v>
+        <x:v>5700</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B40" s="0">
-        <x:v>11.89</x:v>
+        <x:v>24.98</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="E40" s="0">
-        <x:v>31300</x:v>
+        <x:v>81600</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B41" s="0">
-        <x:v>14.09</x:v>
+        <x:v>34.55</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="E41" s="0">
-        <x:v>94200</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="A42" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B42" s="0">
-        <x:v>11.38</x:v>
+        <x:v>9.88</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="E42" s="0">
-        <x:v>16400</x:v>
+        <x:v>5000</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="A43" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B43" s="0">
-        <x:v>9.28</x:v>
+        <x:v>11.38</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="E43" s="0">
-        <x:v>29500</x:v>
+        <x:v>16400</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="A44" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B44" s="0">
-        <x:v>24.98</x:v>
+        <x:v>21.88</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="E44" s="0">
-        <x:v>81600</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="A45" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B45" s="0">
         <x:v>27.07</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E45" s="0">
         <x:v>5700</x:v>
@@ -4873,16 +5312,16 @@
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="A46" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B46" s="0">
         <x:v>44.9</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="E46" s="0">
         <x:v>189</x:v>
@@ -4890,7 +5329,7 @@
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="A47" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B47" s="0">
         <x:v>21.32</x:v>
@@ -4899,7 +5338,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="E47" s="0">
         <x:v>90400</x:v>
@@ -4907,16 +5346,16 @@
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="A48" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B48" s="0">
         <x:v>10.79</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="E48" s="0">
         <x:v>31400</x:v>
@@ -4924,16 +5363,16 @@
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="A49" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B49" s="0">
         <x:v>11.8</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E49" s="0">
         <x:v>12000</x:v>
